--- a/simulation_results/Case_2_results.xlsx
+++ b/simulation_results/Case_2_results.xlsx
@@ -492,258 +492,258 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.74</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="B2" t="n">
         <v>0.39</v>
       </c>
       <c r="C2" t="n">
-        <v>0.42</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.34</v>
+        <v>0.09</v>
       </c>
       <c r="G2" t="n">
         <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
       <c r="I2" t="n">
-        <v>0.24</v>
+        <v>0.8</v>
       </c>
       <c r="J2" t="n">
-        <v>2.612676056338028</v>
+        <v>11.9079797979798</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.68</v>
+        <v>-19.67663299663299</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.17</v>
+        <v>0.98</v>
       </c>
       <c r="B3" t="n">
-        <v>0.38</v>
+        <v>0.1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.96</v>
+        <v>0.06</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.18</v>
+        <v>0.93</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>0.39</v>
+        <v>0.52</v>
       </c>
       <c r="I3" t="n">
-        <v>0.23</v>
+        <v>0.36</v>
       </c>
       <c r="J3" t="n">
-        <v>4.597492682926829</v>
+        <v>-16.76942845223196</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.36</v>
+        <v>22.89736337088026</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9</v>
+        <v>0.28</v>
       </c>
       <c r="B4" t="n">
-        <v>0.87</v>
+        <v>0.59</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="E4" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.93</v>
+        <v>0.05</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.41</v>
+        <v>0.85</v>
       </c>
       <c r="I4" t="n">
-        <v>0.36</v>
+        <v>0.5</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8764705882352928</v>
+        <v>2.596999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>-9.865784313725499</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.75</v>
+        <v>0.52</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9500000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3</v>
+        <v>0.97</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.31</v>
+        <v>0.49</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02</v>
+        <v>0.9</v>
       </c>
       <c r="J5" t="n">
-        <v>47.07785714285723</v>
+        <v>27.01118644067797</v>
       </c>
       <c r="K5" t="n">
-        <v>-22.52178571428576</v>
+        <v>32.13398305084747</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.72</v>
+        <v>0.24</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06</v>
+        <v>0.8</v>
       </c>
       <c r="C6" t="n">
-        <v>0.41</v>
+        <v>0.98</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E6" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="G6" t="n">
         <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>0.36</v>
+        <v>0.77</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01</v>
+        <v>0.28</v>
       </c>
       <c r="J6" t="n">
-        <v>-2.426569840868905</v>
+        <v>73.53999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>-20.2157798686537</v>
+        <v>-87.07999999999973</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.27</v>
+        <v>0.41</v>
       </c>
       <c r="B7" t="n">
-        <v>0.87</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.58</v>
+        <v>0.99</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>0.97</v>
+        <v>0.72</v>
       </c>
       <c r="I7" t="n">
-        <v>0.32</v>
+        <v>0.1</v>
       </c>
       <c r="J7" t="n">
-        <v>-239.461964285714</v>
+        <v>31.95221621621622</v>
       </c>
       <c r="K7" t="n">
-        <v>169.0749999999998</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="B8" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C8" t="n">
         <v>0.47</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.5</v>
-      </c>
       <c r="D8" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>0.55</v>
+        <v>0.21</v>
       </c>
       <c r="I8" t="n">
-        <v>0.65</v>
+        <v>0.15</v>
       </c>
       <c r="J8" t="n">
-        <v>80.5474545454545</v>
+        <v>-64.20416666666661</v>
       </c>
       <c r="K8" t="n">
-        <v>-88.19727272727286</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.77</v>
+        <v>0.34</v>
       </c>
       <c r="B9" t="n">
-        <v>0.99</v>
+        <v>0.42</v>
       </c>
       <c r="C9" t="n">
-        <v>0.72</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="D9" t="n">
         <v>-5</v>
@@ -752,33 +752,33 @@
         <v>-5</v>
       </c>
       <c r="F9" t="n">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.49</v>
+        <v>0.15</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="J9" t="n">
-        <v>7.452069230769232</v>
+        <v>5.322642320085932</v>
       </c>
       <c r="K9" t="n">
-        <v>-13.02565384615385</v>
+        <v>5.584065520945224</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="B10" t="n">
-        <v>0.92</v>
+        <v>0.36</v>
       </c>
       <c r="C10" t="n">
-        <v>0.39</v>
+        <v>0.96</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -787,594 +787,594 @@
         <v>-5</v>
       </c>
       <c r="F10" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="G10" t="n">
         <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="I10" t="n">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>53.24124137931035</v>
+        <v>33.87803278688523</v>
       </c>
       <c r="K10" t="n">
-        <v>55.78103448275863</v>
+        <v>146.9475409836064</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.24</v>
+        <v>0.84</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="C11" t="n">
-        <v>0.96</v>
+        <v>0.14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E11" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.71</v>
+        <v>0.36</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="I11" t="n">
-        <v>0.87</v>
+        <v>0.61</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8949999999999969</v>
+        <v>5.169615384615387</v>
       </c>
       <c r="K11" t="n">
-        <v>-37.67000000000002</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="B12" t="n">
-        <v>0.37</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.76</v>
+        <v>0.34</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.25</v>
+        <v>0.65</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01</v>
+        <v>0.52</v>
       </c>
       <c r="J12" t="n">
-        <v>3.515972222222222</v>
+        <v>0.4520634920634915</v>
       </c>
       <c r="K12" t="n">
-        <v>19.18194444444444</v>
+        <v>-1.14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.99</v>
+        <v>0.89</v>
       </c>
       <c r="B13" t="n">
-        <v>0.79</v>
+        <v>0.3</v>
       </c>
       <c r="C13" t="n">
-        <v>0.86</v>
+        <v>0.66</v>
       </c>
       <c r="D13" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F13" t="n">
-        <v>0.19</v>
+        <v>0.62</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="J13" t="n">
-        <v>4.98385561936013</v>
+        <v>-1.231966792452831</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.38</v>
+        <v>-12.10663396226415</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="B14" t="n">
-        <v>0.54</v>
+        <v>0.3</v>
       </c>
       <c r="C14" t="n">
         <v>0.17</v>
       </c>
       <c r="D14" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="I14" t="n">
-        <v>0.91</v>
+        <v>0.63</v>
       </c>
       <c r="J14" t="n">
-        <v>2.705433444698436</v>
+        <v>-5.426796187683287</v>
       </c>
       <c r="K14" t="n">
-        <v>-1.5</v>
+        <v>16.41494379276637</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.65</v>
+        <v>0.01</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="C15" t="n">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4</v>
+        <v>0.62</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>0.78</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03</v>
+        <v>0.6900000000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>-4.181397849462365</v>
+        <v>-15.41190476190475</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.8</v>
+        <v>-23.22710317460317</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.41</v>
+        <v>0.48</v>
       </c>
       <c r="B16" t="n">
-        <v>0.34</v>
+        <v>0.61</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E16" t="n">
         <v>-5</v>
       </c>
       <c r="F16" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.55</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>0.64</v>
+        <v>0.88</v>
       </c>
       <c r="J16" t="n">
-        <v>1.463553934340802</v>
+        <v>1.693391304347826</v>
       </c>
       <c r="K16" t="n">
-        <v>-23.79743095362168</v>
+        <v>-1.10873913043478</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.32</v>
+        <v>0.58</v>
       </c>
       <c r="B17" t="n">
-        <v>0.37</v>
+        <v>0.05</v>
       </c>
       <c r="C17" t="n">
-        <v>0.31</v>
+        <v>0.47</v>
       </c>
       <c r="D17" t="n">
         <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.21</v>
+        <v>0.35</v>
       </c>
       <c r="I17" t="n">
-        <v>0.33</v>
+        <v>0.93</v>
       </c>
       <c r="J17" t="n">
-        <v>11.78512145748988</v>
+        <v>-1.168974999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>1.022621457489877</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.3</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4</v>
+        <v>0.65</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="E18" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>0.16</v>
+        <v>0.86</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.76</v>
+        <v>0.65</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9</v>
+        <v>0.31</v>
       </c>
       <c r="J18" t="n">
-        <v>9.900102432778493</v>
+        <v>2.043311586051746</v>
       </c>
       <c r="K18" t="n">
-        <v>-47.40516325224068</v>
+        <v>9.164552868391459</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="B19" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="C19" t="n">
-        <v>0.29</v>
+        <v>0.72</v>
       </c>
       <c r="D19" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>0.52</v>
+        <v>0.43</v>
       </c>
       <c r="I19" t="n">
-        <v>0.52</v>
+        <v>0.74</v>
       </c>
       <c r="J19" t="n">
-        <v>-4.896923076923079</v>
+        <v>222.8000000000008</v>
       </c>
       <c r="K19" t="n">
-        <v>7.480320512820508</v>
+        <v>-574.366250000002</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.54</v>
+        <v>0.85</v>
       </c>
       <c r="B20" t="n">
-        <v>0.28</v>
+        <v>0.86</v>
       </c>
       <c r="C20" t="n">
-        <v>0.55</v>
+        <v>0.88</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0.09</v>
+        <v>0.34</v>
       </c>
       <c r="I20" t="n">
-        <v>0.54</v>
+        <v>0.43</v>
       </c>
       <c r="J20" t="n">
-        <v>2.071728395061728</v>
+        <v>3.823377648525135</v>
       </c>
       <c r="K20" t="n">
-        <v>2.924320987654321</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="B21" t="n">
-        <v>0.46</v>
+        <v>0.16</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01</v>
+        <v>0.44</v>
       </c>
       <c r="D21" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.41</v>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
-        <v>0.92</v>
+        <v>0.36</v>
       </c>
       <c r="I21" t="n">
-        <v>0.11</v>
+        <v>0.49</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.9839771428571407</v>
+        <v>3.458638195004031</v>
       </c>
       <c r="K21" t="n">
-        <v>-2.40868571428571</v>
+        <v>-8.115406929895245</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.75</v>
+        <v>0.23</v>
       </c>
       <c r="B22" t="n">
-        <v>0.34</v>
+        <v>0.21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.44</v>
+        <v>0.36</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F22" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I22" t="n">
-        <v>0.38</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4347149321266963</v>
+        <v>10.06434210526316</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.58</v>
+        <v>5.156096491228068</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="B23" t="n">
         <v>0.47</v>
       </c>
-      <c r="B23" t="n">
-        <v>0.7000000000000001</v>
-      </c>
       <c r="C23" t="n">
-        <v>0.54</v>
+        <v>0.29</v>
       </c>
       <c r="D23" t="n">
         <v>5</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F23" t="n">
-        <v>0.26</v>
+        <v>0.01</v>
       </c>
       <c r="G23" t="n">
         <v>3</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="I23" t="n">
-        <v>0.99</v>
+        <v>0.75</v>
       </c>
       <c r="J23" t="n">
-        <v>25.66555555555556</v>
+        <v>307.7827027027042</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.52</v>
+        <v>-186.044831081082</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.55</v>
+        <v>0.28</v>
       </c>
       <c r="B24" t="n">
-        <v>0.77</v>
+        <v>0.42</v>
       </c>
       <c r="C24" t="n">
-        <v>0.88</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.98</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>0.47</v>
+        <v>0.24</v>
       </c>
       <c r="I24" t="n">
-        <v>0.66</v>
+        <v>0.88</v>
       </c>
       <c r="J24" t="n">
-        <v>11.19666666666667</v>
+        <v>12.46000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>-1.96</v>
+        <v>-1.62</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.47</v>
+        <v>0.28</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="C25" t="n">
-        <v>0.41</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E25" t="n">
         <v>5</v>
       </c>
       <c r="F25" t="n">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
       </c>
       <c r="H25" t="n">
-        <v>0.26</v>
+        <v>0.04</v>
       </c>
       <c r="I25" t="n">
-        <v>0.78</v>
+        <v>0.37</v>
       </c>
       <c r="J25" t="n">
-        <v>33.32305418719211</v>
+        <v>-29.70220338983055</v>
       </c>
       <c r="K25" t="n">
-        <v>78.43832512315269</v>
+        <v>30.31603813559324</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="B26" t="n">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E26" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0.96</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>0.91</v>
+        <v>0.31</v>
       </c>
       <c r="J26" t="n">
-        <v>6.496426332288401</v>
+        <v>2.209841938883035</v>
       </c>
       <c r="K26" t="n">
-        <v>-3.64561128526646</v>
+        <v>13.36213119072708</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.19</v>
+        <v>0.86</v>
       </c>
       <c r="B27" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C27" t="n">
         <v>0.78</v>
       </c>
-      <c r="C27" t="n">
-        <v>0.18</v>
-      </c>
       <c r="D27" t="n">
         <v>-5</v>
       </c>
@@ -1382,208 +1382,208 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.51</v>
+        <v>0.67</v>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="I27" t="n">
-        <v>0.58</v>
+        <v>0.49</v>
       </c>
       <c r="J27" t="n">
-        <v>-4.305013893176907</v>
+        <v>3.058294585270736</v>
       </c>
       <c r="K27" t="n">
-        <v>-1.02</v>
+        <v>-1.34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.97</v>
+        <v>0.13</v>
       </c>
       <c r="B28" t="n">
-        <v>0.29</v>
+        <v>0.48</v>
       </c>
       <c r="C28" t="n">
-        <v>0.12</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="E28" t="n">
         <v>-5</v>
       </c>
       <c r="F28" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
-        <v>0.84</v>
+        <v>0.32</v>
       </c>
       <c r="I28" t="n">
-        <v>0.59</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="J28" t="n">
-        <v>-15.41715789473684</v>
+        <v>-4.848905775075987</v>
       </c>
       <c r="K28" t="n">
-        <v>-23.17105263157894</v>
+        <v>-51.10182370820668</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.59</v>
+        <v>0.12</v>
       </c>
       <c r="B29" t="n">
-        <v>0.65</v>
+        <v>0.53</v>
       </c>
       <c r="C29" t="n">
-        <v>0.27</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.12</v>
+        <v>0.74</v>
       </c>
       <c r="I29" t="n">
-        <v>0.92</v>
+        <v>0.48</v>
       </c>
       <c r="J29" t="n">
-        <v>11.37215022091311</v>
+        <v>15.19000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.8</v>
+        <v>-58.27500000000004</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.76</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="B30" t="n">
-        <v>0.16</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>0.77</v>
+        <v>0.06</v>
       </c>
       <c r="D30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F30" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H30" t="n">
-        <v>0.25</v>
+        <v>0.71</v>
       </c>
       <c r="I30" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.6438199513381999</v>
+        <v>8.427252747252751</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.04</v>
+        <v>-0.134835164835168</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.63</v>
+        <v>0.18</v>
       </c>
       <c r="B31" t="n">
-        <v>0.77</v>
+        <v>0.47</v>
       </c>
       <c r="C31" t="n">
-        <v>0.13</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.24</v>
+        <v>0.71</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
-        <v>0.91</v>
+        <v>0.1</v>
       </c>
       <c r="I31" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="J31" t="n">
-        <v>-46.94685039370074</v>
+        <v>2.750555555555557</v>
       </c>
       <c r="K31" t="n">
-        <v>246.1325984251968</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.75</v>
+        <v>0.21</v>
       </c>
       <c r="B32" t="n">
-        <v>0.41</v>
+        <v>0.74</v>
       </c>
       <c r="C32" t="n">
-        <v>0.48</v>
+        <v>0.97</v>
       </c>
       <c r="D32" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
       <c r="G32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H32" t="n">
-        <v>0.96</v>
+        <v>0.78</v>
       </c>
       <c r="I32" t="n">
-        <v>0.59</v>
+        <v>0.11</v>
       </c>
       <c r="J32" t="n">
-        <v>3.735315638450502</v>
+        <v>-24.5804545454545</v>
       </c>
       <c r="K32" t="n">
-        <v>13.62363701578192</v>
+        <v>-469.7740340909086</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="B33" t="n">
-        <v>0.06</v>
+        <v>0.27</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="D33" t="n">
         <v>-5</v>
@@ -1592,138 +1592,138 @@
         <v>5</v>
       </c>
       <c r="F33" t="n">
-        <v>0.67</v>
+        <v>0.14</v>
       </c>
       <c r="G33" t="n">
         <v>4</v>
       </c>
       <c r="H33" t="n">
-        <v>0.21</v>
+        <v>0.08</v>
       </c>
       <c r="I33" t="n">
-        <v>0.67</v>
+        <v>0.06</v>
       </c>
       <c r="J33" t="n">
-        <v>0.761787941787943</v>
+        <v>-24.2468181818182</v>
       </c>
       <c r="K33" t="n">
-        <v>29.03432432432433</v>
+        <v>111.1234090909091</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="C34" t="n">
-        <v>0.65</v>
+        <v>0.54</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E34" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F34" t="n">
-        <v>0.62</v>
+        <v>0.71</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
       </c>
       <c r="H34" t="n">
-        <v>0.03</v>
+        <v>0.48</v>
       </c>
       <c r="I34" t="n">
-        <v>0.04</v>
+        <v>0.84</v>
       </c>
       <c r="J34" t="n">
-        <v>3.60589933523267</v>
+        <v>11.38318695652173</v>
       </c>
       <c r="K34" t="n">
-        <v>-1.779097815764477</v>
+        <v>-2.656360248447206</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.92</v>
+        <v>0.22</v>
       </c>
       <c r="B35" t="n">
-        <v>0.36</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.29</v>
+        <v>0.51</v>
       </c>
       <c r="D35" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.86</v>
+        <v>0.46</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
-        <v>0.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I35" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="J35" t="n">
-        <v>3.649208556149733</v>
+        <v>100.7817073170734</v>
       </c>
       <c r="K35" t="n">
-        <v>-1.72</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.03</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="B36" t="n">
-        <v>0.71</v>
+        <v>0.54</v>
       </c>
       <c r="C36" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D36" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>5</v>
+      </c>
+      <c r="F36" t="n">
         <v>0.41</v>
       </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.28</v>
-      </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H36" t="n">
-        <v>0.51</v>
+        <v>0.62</v>
       </c>
       <c r="I36" t="n">
-        <v>0.44</v>
+        <v>0.72</v>
       </c>
       <c r="J36" t="n">
-        <v>-2.791986531986536</v>
+        <v>11.89442459635865</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.5600000000000001</v>
+        <v>2.107197602961942</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.61</v>
+        <v>0.48</v>
       </c>
       <c r="B37" t="n">
-        <v>0.15</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.09</v>
+        <v>0.64</v>
       </c>
       <c r="D37" t="n">
         <v>-5</v>
@@ -1732,103 +1732,103 @@
         <v>-5</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.48</v>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.42</v>
+        <v>0.01</v>
       </c>
       <c r="I37" t="n">
-        <v>0.92</v>
+        <v>0.71</v>
       </c>
       <c r="J37" t="n">
-        <v>-1.291394843962008</v>
+        <v>0.8355555555555556</v>
       </c>
       <c r="K37" t="n">
-        <v>-3.978846675712347</v>
+        <v>0.666388888888882</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.34</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="B38" t="n">
-        <v>0.02</v>
+        <v>0.3</v>
       </c>
       <c r="C38" t="n">
-        <v>0.62</v>
+        <v>0.17</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E38" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H38" t="n">
-        <v>0.06</v>
+        <v>0.31</v>
       </c>
       <c r="I38" t="n">
-        <v>0.54</v>
+        <v>0.89</v>
       </c>
       <c r="J38" t="n">
-        <v>1.484582651391162</v>
+        <v>-7.094901712111605</v>
       </c>
       <c r="K38" t="n">
-        <v>14.73700490998364</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.23</v>
+        <v>0.68</v>
       </c>
       <c r="B39" t="n">
-        <v>0.06</v>
+        <v>0.34</v>
       </c>
       <c r="C39" t="n">
-        <v>0.16</v>
+        <v>0.47</v>
       </c>
       <c r="D39" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.58</v>
+        <v>0.49</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0.79</v>
+        <v>0.46</v>
       </c>
       <c r="I39" t="n">
-        <v>0.12</v>
+        <v>0.76</v>
       </c>
       <c r="J39" t="n">
-        <v>0.9754778554778555</v>
+        <v>1.189241301907969</v>
       </c>
       <c r="K39" t="n">
-        <v>-1.16</v>
+        <v>-0.98</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.18</v>
+        <v>0.37</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6900000000000001</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>0.15</v>
+        <v>0.91</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1837,1048 +1837,1048 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2</v>
+        <v>0.54</v>
       </c>
       <c r="G40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H40" t="n">
-        <v>0.87</v>
+        <v>0.66</v>
       </c>
       <c r="I40" t="n">
-        <v>0.61</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>-3.403749999999997</v>
+        <v>3.908202918937929</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.4</v>
+        <v>-1.08</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.42</v>
+        <v>0.47</v>
       </c>
       <c r="B41" t="n">
-        <v>0.15</v>
+        <v>0.38</v>
       </c>
       <c r="C41" t="n">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E41" t="n">
         <v>-5</v>
       </c>
       <c r="F41" t="n">
-        <v>0.63</v>
+        <v>0.08</v>
       </c>
       <c r="G41" t="n">
         <v>3</v>
       </c>
       <c r="H41" t="n">
-        <v>0.97</v>
+        <v>0.73</v>
       </c>
       <c r="I41" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="J41" t="n">
-        <v>-1.751876430205949</v>
+        <v>3.652549019607842</v>
       </c>
       <c r="K41" t="n">
-        <v>-20.46566361556064</v>
+        <v>-13.92637254901961</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.62</v>
+        <v>0.89</v>
       </c>
       <c r="B42" t="n">
-        <v>0.76</v>
+        <v>0.18</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F42" t="n">
-        <v>0.91</v>
+        <v>0.48</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.76</v>
+        <v>0.16</v>
       </c>
       <c r="I42" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="J42" t="n">
-        <v>7.699950248756221</v>
+        <v>-1.101985649054142</v>
       </c>
       <c r="K42" t="n">
-        <v>-1.82</v>
+        <v>19.73006523157208</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.85</v>
+        <v>0.68</v>
       </c>
       <c r="B43" t="n">
-        <v>0.02</v>
+        <v>0.61</v>
       </c>
       <c r="C43" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F43" t="n">
-        <v>0.44</v>
+        <v>0.19</v>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.02</v>
+        <v>0.73</v>
       </c>
       <c r="I43" t="n">
-        <v>0.31</v>
+        <v>0.48</v>
       </c>
       <c r="J43" t="n">
-        <v>-3.371756415962023</v>
+        <v>2.293619078311306</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.88</v>
+        <v>7.572046406703195</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.34</v>
+        <v>0.02</v>
       </c>
       <c r="B44" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="C44" t="n">
-        <v>0.13</v>
+        <v>0.91</v>
       </c>
       <c r="D44" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09</v>
+        <v>0.98</v>
       </c>
       <c r="G44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
-        <v>0.53</v>
+        <v>0.98</v>
       </c>
       <c r="I44" t="n">
-        <v>0.89</v>
+        <v>0.02</v>
       </c>
       <c r="J44" t="n">
-        <v>-6.160401337792642</v>
+        <v>10.41941176470588</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.18</v>
+        <v>-17.38447478991597</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.03</v>
+        <v>0.96</v>
       </c>
       <c r="B45" t="n">
-        <v>0.59</v>
+        <v>0.67</v>
       </c>
       <c r="C45" t="n">
-        <v>0.34</v>
+        <v>0.15</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E45" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.93</v>
+        <v>0.15</v>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H45" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I45" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="J45" t="n">
-        <v>-4.920032467532473</v>
+        <v>1.544582309582307</v>
       </c>
       <c r="K45" t="n">
-        <v>-15.12493506493507</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.43</v>
+        <v>0.3</v>
       </c>
       <c r="C46" t="n">
-        <v>0.24</v>
+        <v>0.09</v>
       </c>
       <c r="D46" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I46" t="n">
-        <v>0.02</v>
+        <v>0.44</v>
       </c>
       <c r="J46" t="n">
-        <v>6.023387096774189</v>
+        <v>-0.1017391304347837</v>
       </c>
       <c r="K46" t="n">
-        <v>4.48165898617512</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="B47" t="n">
-        <v>0.88</v>
+        <v>0.52</v>
       </c>
       <c r="C47" t="n">
-        <v>0.42</v>
+        <v>0.74</v>
       </c>
       <c r="D47" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="E47" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.09</v>
+        <v>0.22</v>
       </c>
       <c r="G47" t="n">
         <v>4</v>
       </c>
       <c r="H47" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I47" t="n">
         <v>0.09</v>
       </c>
-      <c r="I47" t="n">
-        <v>0.13</v>
-      </c>
       <c r="J47" t="n">
-        <v>9.960785714285709</v>
+        <v>15.702875</v>
       </c>
       <c r="K47" t="n">
-        <v>-2.33702380952381</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C48" t="n">
         <v>0.93</v>
       </c>
-      <c r="B48" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.35</v>
-      </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.39</v>
+        <v>0.96</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H48" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
       <c r="I48" t="n">
-        <v>0.36</v>
+        <v>0.65</v>
       </c>
       <c r="J48" t="n">
-        <v>-1.267354562155542</v>
+        <v>11.46365555555556</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.78</v>
+        <v>-1.92</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.17</v>
+        <v>0.01</v>
       </c>
       <c r="B49" t="n">
-        <v>0.99</v>
+        <v>0.68</v>
       </c>
       <c r="C49" t="n">
-        <v>0.67</v>
+        <v>0.19</v>
       </c>
       <c r="D49" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F49" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="I49" t="n">
-        <v>0.2</v>
+        <v>0.89</v>
       </c>
       <c r="J49" t="n">
-        <v>-21.20338775510206</v>
+        <v>-4.129783333333333</v>
       </c>
       <c r="K49" t="n">
-        <v>-1.12</v>
+        <v>5.10922916666667</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="B50" t="n">
-        <v>0.54</v>
+        <v>0.58</v>
       </c>
       <c r="C50" t="n">
-        <v>0.03</v>
+        <v>0.91</v>
       </c>
       <c r="D50" t="n">
         <v>5</v>
       </c>
       <c r="E50" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.38</v>
+        <v>0.9</v>
       </c>
       <c r="G50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2</v>
+        <v>0.43</v>
       </c>
       <c r="I50" t="n">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.6887249466950963</v>
+        <v>14.77396551724136</v>
       </c>
       <c r="K50" t="n">
-        <v>10.46292347784885</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="B51" t="n">
-        <v>0.37</v>
+        <v>0.11</v>
       </c>
       <c r="C51" t="n">
-        <v>0.99</v>
+        <v>0.72</v>
       </c>
       <c r="D51" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F51" t="n">
-        <v>0.05</v>
+        <v>0.58</v>
       </c>
       <c r="G51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H51" t="n">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="I51" t="n">
-        <v>0.27</v>
+        <v>0.72</v>
       </c>
       <c r="J51" t="n">
-        <v>24.11124999999998</v>
+        <v>2.325177865612649</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.1</v>
+        <v>15.14513833992094</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.6</v>
+        <v>0.93</v>
       </c>
       <c r="B52" t="n">
-        <v>0.58</v>
+        <v>0.66</v>
       </c>
       <c r="C52" t="n">
-        <v>0.27</v>
+        <v>0.37</v>
       </c>
       <c r="D52" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.03</v>
+        <v>0.47</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="I52" t="n">
-        <v>0.53</v>
+        <v>0.66</v>
       </c>
       <c r="J52" t="n">
-        <v>0.7548351648351647</v>
+        <v>1.339036885245902</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.06</v>
+        <v>-0.9400000000000001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.44</v>
+        <v>0.11</v>
       </c>
       <c r="B53" t="n">
-        <v>0.45</v>
+        <v>0.66</v>
       </c>
       <c r="C53" t="n">
-        <v>0.61</v>
+        <v>0.39</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="G53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H53" t="n">
-        <v>0.59</v>
+        <v>0.84</v>
       </c>
       <c r="I53" t="n">
-        <v>0.92</v>
+        <v>0.41</v>
       </c>
       <c r="J53" t="n">
-        <v>14.46123809523809</v>
+        <v>-9.767565789473682</v>
       </c>
       <c r="K53" t="n">
-        <v>10.08011904761904</v>
+        <v>-1.26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.3</v>
+        <v>0.11</v>
       </c>
       <c r="B54" t="n">
-        <v>0.74</v>
+        <v>0.62</v>
       </c>
       <c r="C54" t="n">
-        <v>0.29</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E54" t="n">
         <v>5</v>
       </c>
       <c r="F54" t="n">
-        <v>0.47</v>
+        <v>0.6</v>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H54" t="n">
-        <v>0.29</v>
+        <v>0.04</v>
       </c>
       <c r="I54" t="n">
-        <v>0.71</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="J54" t="n">
-        <v>-12.3428</v>
+        <v>73.69929824561407</v>
       </c>
       <c r="K54" t="n">
-        <v>-35.96566666666666</v>
+        <v>-263.4971177944869</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.63</v>
+        <v>0.28</v>
       </c>
       <c r="B55" t="n">
-        <v>0.25</v>
+        <v>0.04</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
         <v>-5</v>
       </c>
       <c r="E55" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.76</v>
+        <v>0.15</v>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="I55" t="n">
-        <v>0.86</v>
+        <v>0.28</v>
       </c>
       <c r="J55" t="n">
-        <v>16.02478991596639</v>
+        <v>1.1</v>
       </c>
       <c r="K55" t="n">
-        <v>12.12439775910366</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.53</v>
+        <v>0.09</v>
       </c>
       <c r="B56" t="n">
-        <v>0.48</v>
+        <v>0.3</v>
       </c>
       <c r="C56" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.03</v>
+        <v>0.6900000000000001</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H56" t="n">
-        <v>0.76</v>
+        <v>0.14</v>
       </c>
       <c r="I56" t="n">
-        <v>0.72</v>
+        <v>0.2</v>
       </c>
       <c r="J56" t="n">
-        <v>5.604372093023255</v>
+        <v>-16.10681818181818</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.06</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="B57" t="n">
-        <v>0.59</v>
+        <v>0.04</v>
       </c>
       <c r="C57" t="n">
-        <v>0.15</v>
+        <v>0.03</v>
       </c>
       <c r="D57" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="E57" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.91</v>
+        <v>0.32</v>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H57" t="n">
-        <v>0.28</v>
+        <v>0.75</v>
       </c>
       <c r="I57" t="n">
-        <v>0.18</v>
+        <v>0.63</v>
       </c>
       <c r="J57" t="n">
-        <v>-6.097121212121213</v>
+        <v>-2.488612331679661</v>
       </c>
       <c r="K57" t="n">
-        <v>-16.33079545454545</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E58" t="n">
+        <v>5</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G58" t="n">
+        <v>3</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I58" t="n">
         <v>0.22</v>
       </c>
-      <c r="B58" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="G58" t="n">
-        <v>4</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0.5700000000000001</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0.3</v>
-      </c>
       <c r="J58" t="n">
-        <v>-6.112258064516126</v>
+        <v>-0.5008316008315958</v>
       </c>
       <c r="K58" t="n">
-        <v>-19.62532258064516</v>
+        <v>4.08548856548857</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.78</v>
+        <v>0.6</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="C59" t="n">
-        <v>0.84</v>
+        <v>0.77</v>
       </c>
       <c r="D59" t="n">
         <v>-5</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F59" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
       </c>
       <c r="H59" t="n">
-        <v>0.45</v>
+        <v>0.53</v>
       </c>
       <c r="I59" t="n">
-        <v>0.46</v>
+        <v>0.88</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.1755555555555559</v>
+        <v>6.50505376344086</v>
       </c>
       <c r="K59" t="n">
-        <v>-1.12</v>
+        <v>-1.858052568697732</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.15</v>
+        <v>0.75</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="C60" t="n">
         <v>0.6</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9400000000000001</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0.65</v>
+        <v>0.36</v>
       </c>
       <c r="I60" t="n">
         <v>0.08</v>
       </c>
       <c r="J60" t="n">
-        <v>1.188</v>
+        <v>-2.557157190635451</v>
       </c>
       <c r="K60" t="n">
-        <v>-1.88</v>
+        <v>0.4676003344481607</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.52</v>
+        <v>0.85</v>
       </c>
       <c r="B61" t="n">
-        <v>0.51</v>
+        <v>0.91</v>
       </c>
       <c r="C61" t="n">
-        <v>0.41</v>
+        <v>0.76</v>
       </c>
       <c r="D61" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F61" t="n">
-        <v>0.77</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H61" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="I61" t="n">
-        <v>0.72</v>
+        <v>0.32</v>
       </c>
       <c r="J61" t="n">
-        <v>1.182949308755761</v>
+        <v>10.03698571428571</v>
       </c>
       <c r="K61" t="n">
-        <v>-1.54</v>
+        <v>9.043476190476191</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.78</v>
+        <v>0.63</v>
       </c>
       <c r="B62" t="n">
-        <v>0.99</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.02</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="E62" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="G62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="I62" t="n">
-        <v>0.96</v>
+        <v>0.33</v>
       </c>
       <c r="J62" t="n">
-        <v>-13.59747669172933</v>
+        <v>2.669027409372237</v>
       </c>
       <c r="K62" t="n">
-        <v>-16.91558228905597</v>
+        <v>-1.52</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.24</v>
+        <v>0.76</v>
       </c>
       <c r="B63" t="n">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="C63" t="n">
-        <v>0.71</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E63" t="n">
         <v>5</v>
       </c>
       <c r="F63" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.38</v>
+        <v>0.65</v>
       </c>
       <c r="I63" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="J63" t="n">
-        <v>27.97357894736842</v>
+        <v>4.883130252100838</v>
       </c>
       <c r="K63" t="n">
-        <v>23.0692105263158</v>
+        <v>2.259117647058825</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="B64" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="C64" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E64" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F64" t="n">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="G64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H64" t="n">
-        <v>0.09</v>
+        <v>0.33</v>
       </c>
       <c r="I64" t="n">
-        <v>0.9</v>
+        <v>0.46</v>
       </c>
       <c r="J64" t="n">
-        <v>-2.204539007092194</v>
+        <v>5.608690735102218</v>
       </c>
       <c r="K64" t="n">
-        <v>13.77251773049645</v>
+        <v>-5.055937364071336</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
+        <v>0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E65" t="n">
+        <v>5</v>
+      </c>
+      <c r="F65" t="n">
         <v>0.9</v>
       </c>
-      <c r="B65" t="n">
-        <v>0.8300000000000001</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="D65" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.23</v>
-      </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H65" t="n">
-        <v>0.8300000000000001</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="I65" t="n">
-        <v>0.46</v>
+        <v>0.33</v>
       </c>
       <c r="J65" t="n">
-        <v>2.094270921745034</v>
+        <v>-15.31285714285715</v>
       </c>
       <c r="K65" t="n">
-        <v>-0.46</v>
+        <v>-125.7964285714286</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.99</v>
+        <v>0.55</v>
       </c>
       <c r="B66" t="n">
-        <v>0.43</v>
+        <v>0.1</v>
       </c>
       <c r="C66" t="n">
-        <v>0.64</v>
+        <v>0.88</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E66" t="n">
         <v>-5</v>
       </c>
       <c r="F66" t="n">
-        <v>0.59</v>
+        <v>0.27</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H66" t="n">
-        <v>0.31</v>
+        <v>0.53</v>
       </c>
       <c r="I66" t="n">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="J66" t="n">
-        <v>0.6136666666666666</v>
+        <v>-1.366420398823146</v>
       </c>
       <c r="K66" t="n">
-        <v>-10.98410256410257</v>
+        <v>-25.65355017979732</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.89</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="B67" t="n">
-        <v>0.53</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.97</v>
+        <v>0.45</v>
       </c>
       <c r="D67" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F67" t="n">
-        <v>0.6</v>
+        <v>0.93</v>
       </c>
       <c r="G67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H67" t="n">
-        <v>0.8</v>
+        <v>0.24</v>
       </c>
       <c r="I67" t="n">
-        <v>0.08</v>
+        <v>0.74</v>
       </c>
       <c r="J67" t="n">
-        <v>6.406370927318294</v>
+        <v>2.433408134642357</v>
       </c>
       <c r="K67" t="n">
-        <v>-0.9616457811194612</v>
+        <v>4.329060308555399</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.12</v>
+        <v>0.35</v>
       </c>
       <c r="B68" t="n">
-        <v>0.73</v>
+        <v>0.55</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E68" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F68" t="n">
-        <v>0.27</v>
+        <v>0.98</v>
       </c>
       <c r="G68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H68" t="n">
-        <v>0.45</v>
+        <v>0.18</v>
       </c>
       <c r="I68" t="n">
-        <v>0.43</v>
+        <v>0.87</v>
       </c>
       <c r="J68" t="n">
-        <v>-129.8267857142861</v>
+        <v>-31.54454545454552</v>
       </c>
       <c r="K68" t="n">
-        <v>159.9930357142861</v>
+        <v>-105.3976623376625</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.54</v>
+        <v>0.75</v>
       </c>
       <c r="B69" t="n">
-        <v>0.08</v>
+        <v>0.4</v>
       </c>
       <c r="C69" t="n">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="D69" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
         <v>-5</v>
       </c>
       <c r="F69" t="n">
-        <v>0.8300000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0.78</v>
+        <v>0.23</v>
       </c>
       <c r="I69" t="n">
-        <v>0.75</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="J69" t="n">
-        <v>-2.224888888888889</v>
+        <v>4.367858577742066</v>
       </c>
       <c r="K69" t="n">
-        <v>-19.69135802469135</v>
+        <v>8.85139815186823</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.24</v>
+        <v>0.37</v>
       </c>
       <c r="B70" t="n">
-        <v>0.11</v>
+        <v>0.91</v>
       </c>
       <c r="C70" t="n">
-        <v>0.73</v>
+        <v>0.98</v>
       </c>
       <c r="D70" t="n">
         <v>-5</v>
@@ -2887,33 +2887,33 @@
         <v>5</v>
       </c>
       <c r="F70" t="n">
-        <v>0.62</v>
+        <v>0.92</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
       </c>
       <c r="H70" t="n">
-        <v>0.96</v>
+        <v>0.3</v>
       </c>
       <c r="I70" t="n">
-        <v>0.6</v>
+        <v>0.73</v>
       </c>
       <c r="J70" t="n">
-        <v>-0.2043084455324359</v>
+        <v>20.84809090909091</v>
       </c>
       <c r="K70" t="n">
-        <v>22.7084394124847</v>
+        <v>-3.990606060606052</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.11</v>
+        <v>0.84</v>
       </c>
       <c r="B71" t="n">
-        <v>0.65</v>
+        <v>0.22</v>
       </c>
       <c r="C71" t="n">
-        <v>0.34</v>
+        <v>0.08</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -2922,383 +2922,383 @@
         <v>5</v>
       </c>
       <c r="F71" t="n">
-        <v>0.08</v>
+        <v>0.6900000000000001</v>
       </c>
       <c r="G71" t="n">
         <v>3</v>
       </c>
       <c r="H71" t="n">
-        <v>0.89</v>
+        <v>0.6900000000000001</v>
       </c>
       <c r="I71" t="n">
-        <v>0.65</v>
+        <v>0.96</v>
       </c>
       <c r="J71" t="n">
-        <v>-9.733904761904761</v>
+        <v>-6.295591836734695</v>
       </c>
       <c r="K71" t="n">
-        <v>24.42190476190475</v>
+        <v>23.90244897959184</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.88</v>
+        <v>0.21</v>
       </c>
       <c r="B72" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="C72" t="n">
-        <v>0.77</v>
+        <v>0.12</v>
       </c>
       <c r="D72" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.16</v>
+        <v>0.87</v>
       </c>
       <c r="G72" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0.14</v>
+        <v>0.52</v>
       </c>
       <c r="I72" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="J72" t="n">
-        <v>9.008311965811959</v>
+        <v>0.8399999999999999</v>
       </c>
       <c r="K72" t="n">
-        <v>-0.32</v>
+        <v>-1.74</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.45</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="C73" t="n">
-        <v>0.86</v>
+        <v>0.38</v>
       </c>
       <c r="D73" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F73" t="n">
-        <v>0.6900000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="G73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H73" t="n">
-        <v>0.78</v>
+        <v>0.12</v>
       </c>
       <c r="I73" t="n">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="J73" t="n">
-        <v>24.59750926612304</v>
+        <v>1.953066728309446</v>
       </c>
       <c r="K73" t="n">
-        <v>-1.38</v>
+        <v>7.364323470488527</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.99</v>
+        <v>0.21</v>
       </c>
       <c r="B74" t="n">
-        <v>0.78</v>
+        <v>0.15</v>
       </c>
       <c r="C74" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F74" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H74" t="n">
-        <v>0.26</v>
+        <v>0.37</v>
       </c>
       <c r="I74" t="n">
         <v>0.64</v>
       </c>
       <c r="J74" t="n">
-        <v>3.159</v>
+        <v>6.457471264367816</v>
       </c>
       <c r="K74" t="n">
-        <v>-12.71852941176471</v>
+        <v>11.84816091954023</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="B75" t="n">
-        <v>0.27</v>
+        <v>0.17</v>
       </c>
       <c r="C75" t="n">
-        <v>0.73</v>
+        <v>0.9</v>
       </c>
       <c r="D75" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F75" t="n">
-        <v>0.71</v>
+        <v>0.98</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H75" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="I75" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>-2.611428571428572</v>
+        <v>10.21756521739131</v>
       </c>
       <c r="K75" t="n">
-        <v>-1.42</v>
+        <v>-17.54086956521739</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.63</v>
+        <v>0.3</v>
       </c>
       <c r="B76" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="C76" t="n">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="D76" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F76" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H76" t="n">
-        <v>0.71</v>
+        <v>0.24</v>
       </c>
       <c r="I76" t="n">
-        <v>0.17</v>
+        <v>0.86</v>
       </c>
       <c r="J76" t="n">
-        <v>2.102</v>
+        <v>22.57615384615384</v>
       </c>
       <c r="K76" t="n">
-        <v>-1.4</v>
+        <v>-4.525384615384612</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.12</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="C77" t="n">
-        <v>0.61</v>
+        <v>0.14</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E77" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F77" t="n">
-        <v>0.19</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
       </c>
       <c r="H77" t="n">
-        <v>0.12</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I77" t="n">
-        <v>0.08</v>
+        <v>0.52</v>
       </c>
       <c r="J77" t="n">
-        <v>3.116148148148147</v>
+        <v>-11.23087155451401</v>
       </c>
       <c r="K77" t="n">
-        <v>-15.6312962962963</v>
+        <v>19.64564334337686</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="B78" t="n">
-        <v>0.84</v>
+        <v>0.77</v>
       </c>
       <c r="C78" t="n">
-        <v>0.12</v>
+        <v>0.59</v>
       </c>
       <c r="D78" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>0.64</v>
+        <v>0.33</v>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H78" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="I78" t="n">
-        <v>0.01</v>
+        <v>0.76</v>
       </c>
       <c r="J78" t="n">
-        <v>12.58163636363634</v>
+        <v>6.298499999999998</v>
       </c>
       <c r="K78" t="n">
-        <v>-1.28</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="B79" t="n">
-        <v>0.18</v>
+        <v>0.62</v>
       </c>
       <c r="C79" t="n">
-        <v>0.33</v>
+        <v>0.62</v>
       </c>
       <c r="D79" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F79" t="n">
-        <v>0.14</v>
+        <v>0.76</v>
       </c>
       <c r="G79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0.05</v>
+        <v>0.63</v>
       </c>
       <c r="I79" t="n">
-        <v>0.26</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="J79" t="n">
-        <v>2.495846153846156</v>
+        <v>22.308</v>
       </c>
       <c r="K79" t="n">
-        <v>13.13923076923077</v>
+        <v>107.3033333333333</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.64</v>
+        <v>0.12</v>
       </c>
       <c r="B80" t="n">
-        <v>0.85</v>
+        <v>0.53</v>
       </c>
       <c r="C80" t="n">
-        <v>0.68</v>
+        <v>0.29</v>
       </c>
       <c r="D80" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
         <v>-5</v>
       </c>
       <c r="F80" t="n">
-        <v>0.18</v>
+        <v>0.43</v>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H80" t="n">
-        <v>0.68</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I80" t="n">
-        <v>0.12</v>
+        <v>0.98</v>
       </c>
       <c r="J80" t="n">
-        <v>16.25132913054898</v>
+        <v>-17.88722222222222</v>
       </c>
       <c r="K80" t="n">
-        <v>7.8127306840782</v>
+        <v>-41.21416666666666</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.14</v>
+        <v>0.91</v>
       </c>
       <c r="B81" t="n">
-        <v>0.24</v>
+        <v>0.98</v>
       </c>
       <c r="C81" t="n">
-        <v>0.51</v>
+        <v>0.73</v>
       </c>
       <c r="D81" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E81" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0.31</v>
+        <v>0.5</v>
       </c>
       <c r="G81" t="n">
         <v>4</v>
       </c>
       <c r="H81" t="n">
-        <v>0.52</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I81" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="J81" t="n">
-        <v>-2.732326454033773</v>
+        <v>18.55934691745037</v>
       </c>
       <c r="K81" t="n">
-        <v>-69.58144465290808</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.96</v>
+        <v>0.09</v>
       </c>
       <c r="B82" t="n">
-        <v>0.01</v>
+        <v>0.27</v>
       </c>
       <c r="C82" t="n">
-        <v>0.31</v>
+        <v>0.45</v>
       </c>
       <c r="D82" t="n">
         <v>5</v>
@@ -3307,453 +3307,453 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="G82" t="n">
         <v>3</v>
       </c>
       <c r="H82" t="n">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="I82" t="n">
-        <v>0.51</v>
+        <v>0.35</v>
       </c>
       <c r="J82" t="n">
-        <v>-10.86699134199134</v>
+        <v>6.646666666666672</v>
       </c>
       <c r="K82" t="n">
-        <v>-0.8</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="B83" t="n">
-        <v>0.35</v>
+        <v>0.61</v>
       </c>
       <c r="C83" t="n">
-        <v>0.06</v>
+        <v>0.33</v>
       </c>
       <c r="D83" t="n">
         <v>-5</v>
       </c>
       <c r="E83" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F83" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="G83" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="I83" t="n">
-        <v>0.04</v>
+        <v>0.27</v>
       </c>
       <c r="J83" t="n">
-        <v>3.498955223880596</v>
+        <v>-1.055852842809363</v>
       </c>
       <c r="K83" t="n">
-        <v>-20.44447761194032</v>
+        <v>2.269785395763658</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.14</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.05</v>
+        <v>0.43</v>
       </c>
       <c r="D84" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0.16</v>
+        <v>0.66</v>
       </c>
       <c r="G84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H84" t="n">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="I84" t="n">
-        <v>0.62</v>
+        <v>0.37</v>
       </c>
       <c r="J84" t="n">
-        <v>-1.822702702702706</v>
+        <v>5.651216568819309</v>
       </c>
       <c r="K84" t="n">
-        <v>3.76137214137215</v>
+        <v>-1.32</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.01</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="B85" t="n">
-        <v>0.55</v>
+        <v>0.28</v>
       </c>
       <c r="C85" t="n">
-        <v>0.42</v>
+        <v>0.17</v>
       </c>
       <c r="D85" t="n">
         <v>5</v>
       </c>
       <c r="E85" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F85" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G85" t="n">
+        <v>3</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I85" t="n">
         <v>0.54</v>
       </c>
-      <c r="G85" t="n">
-        <v>2</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0.08</v>
-      </c>
       <c r="J85" t="n">
-        <v>-2.583571428571424</v>
+        <v>-3.233280265339967</v>
       </c>
       <c r="K85" t="n">
-        <v>-23.53714285714285</v>
+        <v>-15.56124792703151</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.27</v>
+        <v>0.08</v>
       </c>
       <c r="B86" t="n">
-        <v>0.98</v>
+        <v>0.46</v>
       </c>
       <c r="C86" t="n">
-        <v>0.78</v>
+        <v>0.73</v>
       </c>
       <c r="D86" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0.23</v>
+        <v>0.68</v>
       </c>
       <c r="G86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H86" t="n">
-        <v>0.79</v>
+        <v>0.89</v>
       </c>
       <c r="I86" t="n">
-        <v>0.44</v>
+        <v>0.37</v>
       </c>
       <c r="J86" t="n">
-        <v>97.09227963525825</v>
+        <v>7.20096240601504</v>
       </c>
       <c r="K86" t="n">
-        <v>426.2939513677806</v>
+        <v>-1.36</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.23</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="B87" t="n">
-        <v>0.71</v>
+        <v>0.21</v>
       </c>
       <c r="C87" t="n">
-        <v>0.14</v>
+        <v>0.86</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F87" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="G87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H87" t="n">
-        <v>0.79</v>
+        <v>0.22</v>
       </c>
       <c r="I87" t="n">
-        <v>0.47</v>
+        <v>0.86</v>
       </c>
       <c r="J87" t="n">
-        <v>-3.258632352941176</v>
+        <v>-1.846270491803281</v>
       </c>
       <c r="K87" t="n">
-        <v>-0.1</v>
+        <v>-32.69721311475411</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.98</v>
+        <v>0.72</v>
       </c>
       <c r="B88" t="n">
-        <v>0.39</v>
+        <v>0.61</v>
       </c>
       <c r="C88" t="n">
-        <v>0.15</v>
+        <v>0.79</v>
       </c>
       <c r="D88" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F88" t="n">
-        <v>0.88</v>
+        <v>0.53</v>
       </c>
       <c r="G88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H88" t="n">
-        <v>0.32</v>
+        <v>0.76</v>
       </c>
       <c r="I88" t="n">
-        <v>0.86</v>
+        <v>0.25</v>
       </c>
       <c r="J88" t="n">
-        <v>-0.0001417811253894286</v>
+        <v>5.063</v>
       </c>
       <c r="K88" t="n">
-        <v>1.751176340274693</v>
+        <v>3.585</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.54</v>
+        <v>0.73</v>
       </c>
       <c r="B89" t="n">
-        <v>0.93</v>
+        <v>0.53</v>
       </c>
       <c r="C89" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D89" t="n">
+        <v>5</v>
+      </c>
+      <c r="E89" t="n">
+        <v>5</v>
+      </c>
+      <c r="F89" t="n">
         <v>0.05</v>
       </c>
-      <c r="D89" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E89" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0.48</v>
-      </c>
       <c r="G89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H89" t="n">
-        <v>0.91</v>
+        <v>0.01</v>
       </c>
       <c r="I89" t="n">
-        <v>0.41</v>
+        <v>0.88</v>
       </c>
       <c r="J89" t="n">
-        <v>-2.206333885666943</v>
+        <v>5.185720274390246</v>
       </c>
       <c r="K89" t="n">
-        <v>16.80758492129247</v>
+        <v>3.773704268292683</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.35</v>
+        <v>0.41</v>
       </c>
       <c r="B90" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F90" t="n">
         <v>0.02</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="D90" t="n">
-        <v>5</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0</v>
-      </c>
-      <c r="F90" t="n">
-        <v>0.14</v>
       </c>
       <c r="G90" t="n">
         <v>3</v>
       </c>
       <c r="H90" t="n">
-        <v>0.9500000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="I90" t="n">
-        <v>0.96</v>
+        <v>0.54</v>
       </c>
       <c r="J90" t="n">
-        <v>3.321111111111113</v>
+        <v>0.8138829787234032</v>
       </c>
       <c r="K90" t="n">
-        <v>-0.28</v>
+        <v>-18.44602836879433</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.27</v>
+        <v>0.17</v>
       </c>
       <c r="B91" t="n">
-        <v>0.08</v>
+        <v>0.65</v>
       </c>
       <c r="C91" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
         <v>0.55</v>
       </c>
-      <c r="D91" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0.06</v>
-      </c>
       <c r="G91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="I91" t="n">
-        <v>0.21</v>
+        <v>0.5</v>
       </c>
       <c r="J91" t="n">
-        <v>-0.9210810810810813</v>
+        <v>79.95393939393954</v>
       </c>
       <c r="K91" t="n">
-        <v>-0.12</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.87</v>
+        <v>0.3</v>
       </c>
       <c r="B92" t="n">
-        <v>0.93</v>
+        <v>0.61</v>
       </c>
       <c r="C92" t="n">
-        <v>0.78</v>
+        <v>0.28</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E92" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="I92" t="n">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="J92" t="n">
-        <v>3.88843137254902</v>
+        <v>-57.91079365079371</v>
       </c>
       <c r="K92" t="n">
-        <v>-12.44950980392156</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.78</v>
+        <v>0.64</v>
       </c>
       <c r="B93" t="n">
-        <v>0.55</v>
+        <v>0.23</v>
       </c>
       <c r="C93" t="n">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
       <c r="D93" t="n">
         <v>5</v>
       </c>
       <c r="E93" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0.42</v>
+        <v>0.49</v>
       </c>
       <c r="G93" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.46</v>
+        <v>0.84</v>
       </c>
       <c r="I93" t="n">
-        <v>0.16</v>
+        <v>0.29</v>
       </c>
       <c r="J93" t="n">
-        <v>-5.803714285714283</v>
+        <v>-7.682790697674418</v>
       </c>
       <c r="K93" t="n">
-        <v>13.73933621933622</v>
+        <v>-0.98</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.86</v>
+        <v>0.45</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="C94" t="n">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E94" t="n">
+        <v>5</v>
+      </c>
+      <c r="F94" t="n">
         <v>0.53</v>
       </c>
-      <c r="D94" t="n">
-        <v>5</v>
-      </c>
-      <c r="E94" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0.9</v>
-      </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H94" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="I94" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="J94" t="n">
-        <v>-4.425323741007194</v>
+        <v>13.72499999999999</v>
       </c>
       <c r="K94" t="n">
-        <v>-20.66094552929085</v>
+        <v>14.04833333333332</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.68</v>
+        <v>0.33</v>
       </c>
       <c r="B95" t="n">
-        <v>0.89</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="D95" t="n">
         <v>5</v>
@@ -3762,666 +3762,666 @@
         <v>5</v>
       </c>
       <c r="F95" t="n">
-        <v>0.14</v>
+        <v>0.36</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0.37</v>
+        <v>0.26</v>
       </c>
       <c r="I95" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="J95" t="n">
-        <v>23.059124452783</v>
+        <v>-11.04</v>
       </c>
       <c r="K95" t="n">
-        <v>-12.68834896810507</v>
+        <v>14.7660465116279</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.18</v>
+        <v>0.3</v>
       </c>
       <c r="B96" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C96" t="n">
         <v>0.88</v>
       </c>
-      <c r="C96" t="n">
-        <v>0.06</v>
-      </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E96" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0.26</v>
+        <v>0.47</v>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H96" t="n">
-        <v>0.04</v>
+        <v>0.59</v>
       </c>
       <c r="I96" t="n">
-        <v>0.44</v>
+        <v>0.53</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02540000000000053</v>
+        <v>32.94760000000002</v>
       </c>
       <c r="K96" t="n">
-        <v>11.2125</v>
+        <v>-0.9400000000000001</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.32</v>
+        <v>0.09</v>
       </c>
       <c r="B97" t="n">
-        <v>0.96</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="D97" t="n">
         <v>-5</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F97" t="n">
-        <v>0.8</v>
+        <v>0.48</v>
       </c>
       <c r="G97" t="n">
         <v>4</v>
       </c>
       <c r="H97" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="I97" t="n">
-        <v>0.63</v>
+        <v>0.04</v>
       </c>
       <c r="J97" t="n">
-        <v>-2.301428571428572</v>
+        <v>-4.582597212032277</v>
       </c>
       <c r="K97" t="n">
-        <v>-1.6</v>
+        <v>41.72213499633162</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="B98" t="n">
-        <v>0.09</v>
+        <v>0.6</v>
       </c>
       <c r="C98" t="n">
-        <v>0.47</v>
+        <v>0.77</v>
       </c>
       <c r="D98" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F98" t="n">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H98" t="n">
         <v>0.26</v>
       </c>
       <c r="I98" t="n">
-        <v>0.6900000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="J98" t="n">
-        <v>1.966701388888889</v>
+        <v>9.219729729729728</v>
       </c>
       <c r="K98" t="n">
-        <v>-0.34</v>
+        <v>-6.819092664092664</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="B99" t="n">
-        <v>0.42</v>
+        <v>0.84</v>
       </c>
       <c r="C99" t="n">
-        <v>0.12</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E99" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.98</v>
+        <v>0.28</v>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0.76</v>
+        <v>0.6</v>
       </c>
       <c r="I99" t="n">
-        <v>0.9500000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="J99" t="n">
-        <v>0.5406440071556338</v>
+        <v>-85.18980000000022</v>
       </c>
       <c r="K99" t="n">
-        <v>-15.50083184257604</v>
+        <v>-0.5600000000000001</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.2</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="B100" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="C100" t="n">
-        <v>0.43</v>
+        <v>0.08</v>
       </c>
       <c r="D100" t="n">
         <v>-5</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F100" t="n">
-        <v>0.21</v>
+        <v>0.8</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H100" t="n">
-        <v>0.33</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="I100" t="n">
-        <v>0.98</v>
+        <v>0.15</v>
       </c>
       <c r="J100" t="n">
-        <v>-6.857323818019621</v>
+        <v>2.912116402116403</v>
       </c>
       <c r="K100" t="n">
-        <v>-0.42</v>
+        <v>-17.20501543209877</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="B101" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="C101" t="n">
-        <v>0.72</v>
+        <v>0.21</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E101" t="n">
         <v>-5</v>
       </c>
       <c r="F101" t="n">
-        <v>0.27</v>
+        <v>0.9</v>
       </c>
       <c r="G101" t="n">
         <v>3</v>
       </c>
       <c r="H101" t="n">
-        <v>0.67</v>
+        <v>0.59</v>
       </c>
       <c r="I101" t="n">
-        <v>0.35</v>
+        <v>0.91</v>
       </c>
       <c r="J101" t="n">
-        <v>12.20309067688378</v>
+        <v>0.9614999999999999</v>
       </c>
       <c r="K101" t="n">
-        <v>12.86083014048531</v>
+        <v>-15.56909090909092</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G102" t="n">
+        <v>3</v>
+      </c>
+      <c r="H102" t="n">
         <v>0.73</v>
       </c>
-      <c r="B102" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G102" t="n">
-        <v>4</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0.5</v>
-      </c>
       <c r="I102" t="n">
-        <v>0.87</v>
+        <v>0.79</v>
       </c>
       <c r="J102" t="n">
-        <v>15.00165619834712</v>
+        <v>8.331964285714285</v>
       </c>
       <c r="K102" t="n">
-        <v>-1.82</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.04</v>
+        <v>0.49</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.03</v>
+        <v>0.43</v>
       </c>
       <c r="D103" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E103" t="n">
         <v>5</v>
       </c>
       <c r="F103" t="n">
-        <v>0.92</v>
+        <v>0.17</v>
       </c>
       <c r="G103" t="n">
         <v>4</v>
       </c>
       <c r="H103" t="n">
-        <v>0.36</v>
+        <v>0.03</v>
       </c>
       <c r="I103" t="n">
-        <v>0.1</v>
+        <v>0.6900000000000001</v>
       </c>
       <c r="J103" t="n">
-        <v>-8.506363636363631</v>
+        <v>-261.6933003300327</v>
       </c>
       <c r="K103" t="n">
-        <v>-52.75363636363636</v>
+        <v>151.1721745507883</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.63</v>
+        <v>0.02</v>
       </c>
       <c r="B104" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G104" t="n">
+        <v>3</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I104" t="n">
         <v>0.51</v>
       </c>
-      <c r="C104" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0</v>
-      </c>
-      <c r="E104" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F104" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="G104" t="n">
-        <v>1</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0.5700000000000001</v>
-      </c>
       <c r="J104" t="n">
-        <v>2.945999999999999</v>
+        <v>2.969047619047619</v>
       </c>
       <c r="K104" t="n">
-        <v>2.419999999999998</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.46</v>
+        <v>0.63</v>
       </c>
       <c r="B105" t="n">
-        <v>0.66</v>
+        <v>0.6900000000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>0.42</v>
+        <v>0.47</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F105" t="n">
-        <v>0.43</v>
+        <v>0.67</v>
       </c>
       <c r="G105" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H105" t="n">
-        <v>0.43</v>
+        <v>0.26</v>
       </c>
       <c r="I105" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="J105" t="n">
-        <v>21.91501298701298</v>
+        <v>9.254212338593975</v>
       </c>
       <c r="K105" t="n">
-        <v>16.36483766233765</v>
+        <v>-6.488981348637015</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.33</v>
+        <v>0.51</v>
       </c>
       <c r="B106" t="n">
-        <v>0.77</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>0.89</v>
+        <v>0.51</v>
       </c>
       <c r="D106" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>0.11</v>
+        <v>0.67</v>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H106" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="I106" t="n">
-        <v>0.32</v>
+        <v>0.41</v>
       </c>
       <c r="J106" t="n">
-        <v>4.36</v>
+        <v>6.87466666666667</v>
       </c>
       <c r="K106" t="n">
-        <v>-33.25333333333332</v>
+        <v>-1.34</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.33</v>
+        <v>0.65</v>
       </c>
       <c r="B107" t="n">
-        <v>0.85</v>
+        <v>0.77</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E107" t="n">
         <v>-5</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
       </c>
       <c r="H107" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="I107" t="n">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="J107" t="n">
-        <v>-0.7945762711864405</v>
+        <v>5.931168931043324</v>
       </c>
       <c r="K107" t="n">
-        <v>-16.45372881355933</v>
+        <v>3.566278731949079</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.64</v>
+        <v>0.72</v>
       </c>
       <c r="B108" t="n">
-        <v>0.93</v>
+        <v>0.41</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E108" t="n">
         <v>5</v>
       </c>
       <c r="F108" t="n">
-        <v>0.48</v>
+        <v>0.17</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H108" t="n">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="I108" t="n">
-        <v>0.79</v>
+        <v>0.32</v>
       </c>
       <c r="J108" t="n">
-        <v>10.93096128170895</v>
+        <v>6.746923076923077</v>
       </c>
       <c r="K108" t="n">
-        <v>-43.76901201602139</v>
+        <v>-2.34199430199431</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.78</v>
+        <v>0.61</v>
       </c>
       <c r="B109" t="n">
-        <v>0.21</v>
+        <v>0.51</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8</v>
+        <v>0.35</v>
       </c>
       <c r="D109" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
       <c r="G109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H109" t="n">
-        <v>0.78</v>
+        <v>0.49</v>
       </c>
       <c r="I109" t="n">
-        <v>0.4</v>
+        <v>0.49</v>
       </c>
       <c r="J109" t="n">
-        <v>0.3194467921628883</v>
+        <v>3.402279942279942</v>
       </c>
       <c r="K109" t="n">
-        <v>4.075872070687661</v>
+        <v>-0.98</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.29</v>
+        <v>0.77</v>
       </c>
       <c r="B110" t="n">
-        <v>0.66</v>
+        <v>0.02</v>
       </c>
       <c r="C110" t="n">
-        <v>0.91</v>
+        <v>0.4</v>
       </c>
       <c r="D110" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F110" t="n">
-        <v>0.49</v>
+        <v>0.2</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H110" t="n">
-        <v>0.24</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="I110" t="n">
-        <v>0.09</v>
+        <v>0.52</v>
       </c>
       <c r="J110" t="n">
-        <v>31.83907407407413</v>
+        <v>-2.762296544035675</v>
       </c>
       <c r="K110" t="n">
-        <v>182.6024074074078</v>
+        <v>20.13673355629878</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.86</v>
+        <v>0.54</v>
       </c>
       <c r="B111" t="n">
-        <v>0.19</v>
+        <v>0.43</v>
       </c>
       <c r="C111" t="n">
-        <v>0.06</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E111" t="n">
         <v>-5</v>
       </c>
       <c r="F111" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H111" t="n">
-        <v>0.43</v>
+        <v>0.31</v>
       </c>
       <c r="I111" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="J111" t="n">
-        <v>-4.635226234952261</v>
+        <v>10.29494117647059</v>
       </c>
       <c r="K111" t="n">
-        <v>-28.05483326414833</v>
+        <v>-1.338504901960781</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.87</v>
+        <v>0.17</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="C112" t="n">
-        <v>0.91</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="E112" t="n">
         <v>-5</v>
       </c>
       <c r="F112" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="G112" t="n">
         <v>3</v>
       </c>
       <c r="H112" t="n">
-        <v>0.4</v>
+        <v>0.22</v>
       </c>
       <c r="I112" t="n">
-        <v>0.47</v>
+        <v>0.2</v>
       </c>
       <c r="J112" t="n">
-        <v>0.5543820224719109</v>
+        <v>0.07642611683848727</v>
       </c>
       <c r="K112" t="n">
-        <v>-16.16351123595506</v>
+        <v>-23.57662084765177</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.76</v>
+        <v>0.93</v>
       </c>
       <c r="B113" t="n">
-        <v>0.53</v>
+        <v>0.92</v>
       </c>
       <c r="C113" t="n">
-        <v>0.32</v>
+        <v>0.72</v>
       </c>
       <c r="D113" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E113" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="G113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H113" t="n">
-        <v>0.08</v>
+        <v>0.75</v>
       </c>
       <c r="I113" t="n">
-        <v>0.03</v>
+        <v>0.77</v>
       </c>
       <c r="J113" t="n">
-        <v>2.553173383317713</v>
+        <v>10.95079767244514</v>
       </c>
       <c r="K113" t="n">
-        <v>10.59216026241799</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="B114" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="C114" t="n">
-        <v>0.49</v>
+        <v>0.03</v>
       </c>
       <c r="D114" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E114" t="n">
         <v>-5</v>
@@ -4430,100 +4430,100 @@
         <v>0.48</v>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>0.38</v>
+        <v>0.02</v>
       </c>
       <c r="I114" t="n">
-        <v>0.86</v>
+        <v>0.51</v>
       </c>
       <c r="J114" t="n">
-        <v>-3.115055555555556</v>
+        <v>-3.851928205128203</v>
       </c>
       <c r="K114" t="n">
-        <v>-26.35157407407407</v>
+        <v>-20.20028205128205</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="B115" t="n">
-        <v>0.68</v>
+        <v>0.1</v>
       </c>
       <c r="C115" t="n">
-        <v>0.2</v>
+        <v>0.96</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F115" t="n">
-        <v>0.51</v>
+        <v>0.6900000000000001</v>
       </c>
       <c r="G115" t="n">
         <v>4</v>
       </c>
       <c r="H115" t="n">
-        <v>0.45</v>
+        <v>0.38</v>
       </c>
       <c r="I115" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J115" t="n">
-        <v>-0.8584935701163534</v>
+        <v>9.349438202247185</v>
       </c>
       <c r="K115" t="n">
-        <v>-1.02</v>
+        <v>-7.693857677902633</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.9500000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="B116" t="n">
-        <v>0.92</v>
+        <v>0.11</v>
       </c>
       <c r="C116" t="n">
-        <v>0.99</v>
+        <v>0.74</v>
       </c>
       <c r="D116" t="n">
         <v>5</v>
       </c>
       <c r="E116" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F116" t="n">
-        <v>0.8300000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H116" t="n">
-        <v>0.38</v>
+        <v>0.26</v>
       </c>
       <c r="I116" t="n">
-        <v>0.77</v>
+        <v>0.32</v>
       </c>
       <c r="J116" t="n">
-        <v>8.681951871657759</v>
+        <v>6.777594339622642</v>
       </c>
       <c r="K116" t="n">
-        <v>-7.366550802139042</v>
+        <v>-20.14716981132076</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.88</v>
+        <v>0.36</v>
       </c>
       <c r="B117" t="n">
-        <v>0.68</v>
+        <v>0.09</v>
       </c>
       <c r="C117" t="n">
-        <v>0.38</v>
+        <v>0.12</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
@@ -4532,138 +4532,138 @@
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>0.06</v>
+        <v>0.8</v>
       </c>
       <c r="I117" t="n">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="J117" t="n">
-        <v>1.90458796025716</v>
+        <v>-0.5477622377622374</v>
       </c>
       <c r="K117" t="n">
-        <v>-0.5</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="B118" t="n">
-        <v>0.41</v>
+        <v>0.98</v>
       </c>
       <c r="C118" t="n">
-        <v>0.21</v>
+        <v>0.04</v>
       </c>
       <c r="D118" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E118" t="n">
         <v>5</v>
       </c>
       <c r="F118" t="n">
-        <v>0.25</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G118" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H118" t="n">
-        <v>0.71</v>
+        <v>0.17</v>
       </c>
       <c r="I118" t="n">
-        <v>0.96</v>
+        <v>0.43</v>
       </c>
       <c r="J118" t="n">
-        <v>-4.710344497607658</v>
+        <v>-20.83913978494631</v>
       </c>
       <c r="K118" t="n">
-        <v>14.35557150451887</v>
+        <v>61.20811827957005</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.34</v>
+        <v>0.54</v>
       </c>
       <c r="B119" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="C119" t="n">
-        <v>0.11</v>
+        <v>0.92</v>
       </c>
       <c r="D119" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="E119" t="n">
         <v>5</v>
       </c>
       <c r="F119" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="G119" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H119" t="n">
-        <v>0.44</v>
+        <v>0.28</v>
       </c>
       <c r="I119" t="n">
-        <v>0.5</v>
+        <v>0.31</v>
       </c>
       <c r="J119" t="n">
-        <v>-3.407362637362637</v>
+        <v>15.20625</v>
       </c>
       <c r="K119" t="n">
-        <v>9.131269841269839</v>
+        <v>-16.81499999999999</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.86</v>
+        <v>0.37</v>
       </c>
       <c r="B120" t="n">
-        <v>0.91</v>
+        <v>0.05</v>
       </c>
       <c r="C120" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="D120" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E120" t="n">
         <v>-5</v>
       </c>
       <c r="F120" t="n">
-        <v>0.76</v>
+        <v>0.58</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
       </c>
       <c r="H120" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0.63</v>
+        <v>0.91</v>
       </c>
       <c r="J120" t="n">
-        <v>2.415224780701754</v>
+        <v>-0.9833469387755103</v>
       </c>
       <c r="K120" t="n">
-        <v>-3.298152412280703</v>
+        <v>-21.17336734693877</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="B121" t="n">
-        <v>0.09</v>
+        <v>0.38</v>
       </c>
       <c r="C121" t="n">
-        <v>0.49</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -4672,1387 +4672,1387 @@
         <v>5</v>
       </c>
       <c r="F121" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G121" t="n">
+        <v>2</v>
+      </c>
+      <c r="H121" t="n">
         <v>0.8300000000000001</v>
       </c>
-      <c r="G121" t="n">
-        <v>3</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0.8100000000000001</v>
-      </c>
       <c r="I121" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="J121" t="n">
-        <v>24.87987654320985</v>
+        <v>7.167636363636365</v>
       </c>
       <c r="K121" t="n">
-        <v>-61.9264609053497</v>
+        <v>-12.86909090909091</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.97</v>
+        <v>0.36</v>
       </c>
       <c r="B122" t="n">
-        <v>0.73</v>
+        <v>0.02</v>
       </c>
       <c r="C122" t="n">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="D122" t="n">
         <v>5</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F122" t="n">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
       </c>
       <c r="H122" t="n">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
       <c r="I122" t="n">
-        <v>0.03</v>
+        <v>0.16</v>
       </c>
       <c r="J122" t="n">
-        <v>-0.01726923076922482</v>
+        <v>-2.221904761904762</v>
       </c>
       <c r="K122" t="n">
-        <v>-0.4</v>
+        <v>-20.68174603174603</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.6900000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="B123" t="n">
-        <v>0.23</v>
+        <v>0.73</v>
       </c>
       <c r="C123" t="n">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F123" t="n">
-        <v>0.08</v>
+        <v>0.52</v>
       </c>
       <c r="G123" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H123" t="n">
-        <v>0.02</v>
+        <v>0.55</v>
       </c>
       <c r="I123" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="J123" t="n">
-        <v>-0.4461016949152543</v>
+        <v>322.3400000000005</v>
       </c>
       <c r="K123" t="n">
-        <v>-0.16</v>
+        <v>1033.303749999999</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.05</v>
+        <v>0.67</v>
       </c>
       <c r="B124" t="n">
-        <v>0.72</v>
+        <v>0.34</v>
       </c>
       <c r="C124" t="n">
-        <v>0.38</v>
+        <v>0.19</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E124" t="n">
         <v>5</v>
       </c>
       <c r="F124" t="n">
-        <v>0.23</v>
+        <v>0.63</v>
       </c>
       <c r="G124" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
-        <v>0.23</v>
+        <v>0.48</v>
       </c>
       <c r="I124" t="n">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="J124" t="n">
-        <v>-3.579230769230771</v>
+        <v>-3.334681050656662</v>
       </c>
       <c r="K124" t="n">
-        <v>10.39384615384616</v>
+        <v>13.92235616010007</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.6900000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="B125" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="C125" t="n">
-        <v>0.31</v>
+        <v>0.13</v>
       </c>
       <c r="D125" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
         <v>-5</v>
       </c>
       <c r="F125" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H125" t="n">
-        <v>0.65</v>
+        <v>0.27</v>
       </c>
       <c r="I125" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="J125" t="n">
-        <v>2.525189655172414</v>
+        <v>-0.1587499999999986</v>
       </c>
       <c r="K125" t="n">
-        <v>-16.01717672413793</v>
+        <v>-16.43654094827586</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.84</v>
+        <v>0.54</v>
       </c>
       <c r="B126" t="n">
-        <v>0.85</v>
+        <v>0.03</v>
       </c>
       <c r="C126" t="n">
-        <v>0.29</v>
+        <v>0.49</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F126" t="n">
-        <v>0.63</v>
+        <v>0.14</v>
       </c>
       <c r="G126" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H126" t="n">
-        <v>0.75</v>
+        <v>0.39</v>
       </c>
       <c r="I126" t="n">
-        <v>0.97</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="J126" t="n">
-        <v>11.10250000000001</v>
+        <v>0.580649999999999</v>
       </c>
       <c r="K126" t="n">
-        <v>-1.26</v>
+        <v>-15.08775000000001</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.66</v>
+        <v>0.87</v>
       </c>
       <c r="B127" t="n">
-        <v>0.2</v>
+        <v>0.96</v>
       </c>
       <c r="C127" t="n">
-        <v>0.1</v>
+        <v>0.48</v>
       </c>
       <c r="D127" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E127" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F127" t="n">
-        <v>0.98</v>
+        <v>0.6900000000000001</v>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H127" t="n">
-        <v>0.74</v>
+        <v>0.59</v>
       </c>
       <c r="I127" t="n">
-        <v>0.32</v>
+        <v>0.54</v>
       </c>
       <c r="J127" t="n">
-        <v>3.330676691729323</v>
+        <v>20.86967521367522</v>
       </c>
       <c r="K127" t="n">
-        <v>-19.4943984962406</v>
+        <v>-6.055128205128203</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.84</v>
+        <v>0.38</v>
       </c>
       <c r="B128" t="n">
-        <v>0.86</v>
+        <v>0.6</v>
       </c>
       <c r="C128" t="n">
-        <v>0.8</v>
+        <v>0.66</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E128" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F128" t="n">
-        <v>0.47</v>
+        <v>0.97</v>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H128" t="n">
-        <v>0.85</v>
+        <v>0.11</v>
       </c>
       <c r="I128" t="n">
-        <v>0.6900000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="J128" t="n">
-        <v>4.291965811965813</v>
+        <v>14.68874999999999</v>
       </c>
       <c r="K128" t="n">
-        <v>-12.18982905982906</v>
+        <v>-31.32749999999998</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.75</v>
+        <v>0.36</v>
       </c>
       <c r="B129" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="C129" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E129" t="n">
         <v>-5</v>
       </c>
       <c r="F129" t="n">
-        <v>0.62</v>
+        <v>0.08</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
       </c>
       <c r="H129" t="n">
-        <v>0.58</v>
+        <v>0.08</v>
       </c>
       <c r="I129" t="n">
-        <v>0.91</v>
+        <v>0.68</v>
       </c>
       <c r="J129" t="n">
-        <v>5.267227722772278</v>
+        <v>5.060695187165776</v>
       </c>
       <c r="K129" t="n">
-        <v>-0.007574257425739139</v>
+        <v>-5.666060606060609</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="B130" t="n">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>5</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="G130" t="n">
+        <v>2</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I130" t="n">
         <v>0.39</v>
       </c>
-      <c r="C130" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="D130" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E130" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F130" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G130" t="n">
-        <v>3</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0.28</v>
-      </c>
       <c r="J130" t="n">
-        <v>-0.7275246893915254</v>
+        <v>-1.142500000000011</v>
       </c>
       <c r="K130" t="n">
-        <v>-37.20676967187003</v>
+        <v>103.8575000000001</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="B131" t="n">
-        <v>0.67</v>
+        <v>0.98</v>
       </c>
       <c r="C131" t="n">
-        <v>0.22</v>
+        <v>0.52</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E131" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F131" t="n">
-        <v>0.29</v>
+        <v>0.01</v>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H131" t="n">
-        <v>0.06</v>
+        <v>0.93</v>
       </c>
       <c r="I131" t="n">
-        <v>0.12</v>
+        <v>0.27</v>
       </c>
       <c r="J131" t="n">
-        <v>1.817895652173913</v>
+        <v>7.269234042553192</v>
       </c>
       <c r="K131" t="n">
-        <v>-3.475304347826083</v>
+        <v>-12.94954407294833</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.62</v>
+        <v>0.23</v>
       </c>
       <c r="B132" t="n">
-        <v>0.99</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>0.35</v>
+        <v>0.14</v>
       </c>
       <c r="D132" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.42</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H132" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="I132" t="n">
-        <v>0.39</v>
+        <v>0.18</v>
       </c>
       <c r="J132" t="n">
-        <v>-181.4707142857151</v>
+        <v>-1.230117526826776</v>
       </c>
       <c r="K132" t="n">
-        <v>-0.84</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="B133" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="D133" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>0.75</v>
+        <v>0.04</v>
       </c>
       <c r="G133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H133" t="n">
-        <v>0.61</v>
+        <v>0.1</v>
       </c>
       <c r="I133" t="n">
-        <v>0.13</v>
+        <v>0.28</v>
       </c>
       <c r="J133" t="n">
-        <v>-3.232173913043475</v>
+        <v>9.986571428571423</v>
       </c>
       <c r="K133" t="n">
-        <v>-1.5</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.48</v>
+        <v>0.75</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1</v>
+        <v>0.72</v>
       </c>
       <c r="C134" t="n">
-        <v>0.4</v>
+        <v>0.51</v>
       </c>
       <c r="D134" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F134" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="G134" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H134" t="n">
-        <v>0.48</v>
+        <v>0.37</v>
       </c>
       <c r="I134" t="n">
-        <v>0.59</v>
+        <v>0.16</v>
       </c>
       <c r="J134" t="n">
-        <v>-0.1352136752136759</v>
+        <v>9.154444444444445</v>
       </c>
       <c r="K134" t="n">
-        <v>-0.5</v>
+        <v>-1.533055555555557</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.59</v>
+        <v>0.14</v>
       </c>
       <c r="B135" t="n">
-        <v>0.61</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D135" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="E135" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>0.13</v>
+        <v>0.74</v>
       </c>
       <c r="G135" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H135" t="n">
-        <v>0.68</v>
+        <v>0.77</v>
       </c>
       <c r="I135" t="n">
-        <v>0.19</v>
+        <v>0.6</v>
       </c>
       <c r="J135" t="n">
-        <v>15.92535117056856</v>
+        <v>-2.351978944373312</v>
       </c>
       <c r="K135" t="n">
-        <v>-17.21340022296545</v>
+        <v>-1.48</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.3</v>
+        <v>0.85</v>
       </c>
       <c r="B136" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="C136" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D136" t="n">
         <v>-5</v>
       </c>
       <c r="E136" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0.87</v>
+        <v>0.4</v>
       </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
       <c r="I136" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="J136" t="n">
-        <v>-1.783742690058481</v>
+        <v>4.434926470588233</v>
       </c>
       <c r="K136" t="n">
-        <v>-2.20939571150098</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D137" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
         <v>0.01</v>
-      </c>
-      <c r="B137" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C137" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="D137" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0</v>
-      </c>
-      <c r="F137" t="n">
-        <v>0.7000000000000001</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
       </c>
       <c r="H137" t="n">
-        <v>0.36</v>
+        <v>0.19</v>
       </c>
       <c r="I137" t="n">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="J137" t="n">
-        <v>-5.64506578947368</v>
+        <v>3.465454545454546</v>
       </c>
       <c r="K137" t="n">
-        <v>-1.4</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
         <v>0.48</v>
       </c>
-      <c r="B138" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="C138" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0</v>
-      </c>
-      <c r="E138" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F138" t="n">
-        <v>0.8200000000000001</v>
-      </c>
       <c r="G138" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H138" t="n">
-        <v>0.2</v>
+        <v>0.46</v>
       </c>
       <c r="I138" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="J138" t="n">
-        <v>-0.103602378929482</v>
+        <v>7.257166666666667</v>
       </c>
       <c r="K138" t="n">
-        <v>-26.33764231096007</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.92</v>
+        <v>0.44</v>
       </c>
       <c r="B139" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C139" t="n">
-        <v>0.66</v>
+        <v>0.15</v>
       </c>
       <c r="D139" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E139" t="n">
         <v>5</v>
       </c>
       <c r="F139" t="n">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="G139" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H139" t="n">
-        <v>0.54</v>
+        <v>0.61</v>
       </c>
       <c r="I139" t="n">
-        <v>0.89</v>
+        <v>0.6900000000000001</v>
       </c>
       <c r="J139" t="n">
-        <v>2.955882352941174</v>
+        <v>47.46141176470595</v>
       </c>
       <c r="K139" t="n">
-        <v>4.892689075630254</v>
+        <v>-66.68352941176482</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="B140" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="C140" t="n">
-        <v>0.06</v>
+        <v>0.42</v>
       </c>
       <c r="D140" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="E140" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F140" t="n">
-        <v>0.78</v>
+        <v>0.43</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H140" t="n">
-        <v>0.58</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I140" t="n">
-        <v>0.86</v>
+        <v>0.12</v>
       </c>
       <c r="J140" t="n">
-        <v>-3.465714285714287</v>
+        <v>1.906666666666667</v>
       </c>
       <c r="K140" t="n">
-        <v>-19.4647619047619</v>
+        <v>28.56</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.75</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="B141" t="n">
-        <v>0.66</v>
+        <v>0.76</v>
       </c>
       <c r="C141" t="n">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F141" t="n">
-        <v>0.98</v>
+        <v>0.13</v>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H141" t="n">
-        <v>0.28</v>
+        <v>0.54</v>
       </c>
       <c r="I141" t="n">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="J141" t="n">
-        <v>2.340469667318982</v>
+        <v>12.36804878048781</v>
       </c>
       <c r="K141" t="n">
-        <v>-1.96</v>
+        <v>-46.81487804878048</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.61</v>
+        <v>0.01</v>
       </c>
       <c r="B142" t="n">
-        <v>0.79</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="C142" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D142" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G142" t="n">
+        <v>3</v>
+      </c>
+      <c r="H142" t="n">
         <v>0.46</v>
       </c>
-      <c r="D142" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E142" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F142" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="G142" t="n">
-        <v>2</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0.1</v>
-      </c>
       <c r="I142" t="n">
-        <v>0.76</v>
+        <v>0.68</v>
       </c>
       <c r="J142" t="n">
-        <v>4.063267477203649</v>
+        <v>-63.01600000000004</v>
       </c>
       <c r="K142" t="n">
-        <v>-8.572218844984802</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.16</v>
+        <v>0.45</v>
       </c>
       <c r="B143" t="n">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="C143" t="n">
-        <v>0.11</v>
+        <v>0.71</v>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E143" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>0.11</v>
+        <v>0.63</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
       </c>
       <c r="H143" t="n">
-        <v>0.92</v>
+        <v>0.71</v>
       </c>
       <c r="I143" t="n">
-        <v>0.74</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J143" t="n">
-        <v>-0.2535217391304345</v>
+        <v>7.743577586206897</v>
       </c>
       <c r="K143" t="n">
-        <v>-12.96141304347826</v>
+        <v>-1.26</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.39</v>
+        <v>0.99</v>
       </c>
       <c r="B144" t="n">
-        <v>0.55</v>
+        <v>0.8</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F144" t="n">
-        <v>0.29</v>
+        <v>0.17</v>
       </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H144" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="I144" t="n">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="J144" t="n">
-        <v>-1.87063829787234</v>
+        <v>0.7519574335870747</v>
       </c>
       <c r="K144" t="n">
-        <v>-0.58</v>
+        <v>-9.895913080627626</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="B145" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="C145" t="n">
-        <v>0.6</v>
+        <v>0.42</v>
       </c>
       <c r="D145" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F145" t="n">
-        <v>0.67</v>
+        <v>0.38</v>
       </c>
       <c r="G145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
-        <v>0.13</v>
+        <v>0.77</v>
       </c>
       <c r="I145" t="n">
-        <v>0.9</v>
+        <v>0.35</v>
       </c>
       <c r="J145" t="n">
-        <v>14.67268339155287</v>
+        <v>-0.1392500000000003</v>
       </c>
       <c r="K145" t="n">
-        <v>3.930786644286171</v>
+        <v>15.15375</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.46</v>
+        <v>0.13</v>
       </c>
       <c r="B146" t="n">
-        <v>0.88</v>
+        <v>0.41</v>
       </c>
       <c r="C146" t="n">
-        <v>0.85</v>
+        <v>0.04</v>
       </c>
       <c r="D146" t="n">
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="G146" t="n">
         <v>3</v>
       </c>
       <c r="H146" t="n">
-        <v>0.54</v>
+        <v>0.4</v>
       </c>
       <c r="I146" t="n">
-        <v>0.59</v>
+        <v>0.45</v>
       </c>
       <c r="J146" t="n">
-        <v>22.45781680113906</v>
+        <v>-1.650799999999998</v>
       </c>
       <c r="K146" t="n">
-        <v>-36.8253409270685</v>
+        <v>-1.84</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="B147" t="n">
-        <v>0.22</v>
+        <v>0.61</v>
       </c>
       <c r="C147" t="n">
-        <v>0.8</v>
+        <v>0.68</v>
       </c>
       <c r="D147" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="E147" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F147" t="n">
-        <v>0.6900000000000001</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
       </c>
       <c r="H147" t="n">
-        <v>0.27</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I147" t="n">
-        <v>0.08</v>
+        <v>0.29</v>
       </c>
       <c r="J147" t="n">
-        <v>9.856989247311827</v>
+        <v>63.02333333333349</v>
       </c>
       <c r="K147" t="n">
-        <v>15.29622461170848</v>
+        <v>216.7566666666673</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="B148" t="n">
-        <v>0.91</v>
+        <v>0.27</v>
       </c>
       <c r="C148" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="D148" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F148" t="n">
-        <v>0.23</v>
+        <v>0.72</v>
       </c>
       <c r="G148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
-        <v>0.04</v>
+        <v>0.61</v>
       </c>
       <c r="I148" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="J148" t="n">
-        <v>13.81155555555556</v>
+        <v>1.73048166392994</v>
       </c>
       <c r="K148" t="n">
-        <v>-0.46</v>
+        <v>3.092074438970986</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.99</v>
+        <v>0.34</v>
       </c>
       <c r="B149" t="n">
-        <v>0.39</v>
+        <v>0.75</v>
       </c>
       <c r="C149" t="n">
-        <v>0.01</v>
+        <v>0.36</v>
       </c>
       <c r="D149" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E149" t="n">
         <v>-5</v>
       </c>
       <c r="F149" t="n">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="G149" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>0.49</v>
+        <v>0.78</v>
       </c>
       <c r="I149" t="n">
-        <v>0.76</v>
+        <v>0.24</v>
       </c>
       <c r="J149" t="n">
-        <v>-1.419532128754338</v>
+        <v>-22.63734246575343</v>
       </c>
       <c r="K149" t="n">
-        <v>0.444667943041763</v>
+        <v>-125.6698630136986</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.89</v>
+        <v>0.32</v>
       </c>
       <c r="B150" t="n">
-        <v>0.64</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C150" t="n">
-        <v>0.36</v>
+        <v>0.65</v>
       </c>
       <c r="D150" t="n">
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9</v>
+        <v>0.06</v>
       </c>
       <c r="G150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H150" t="n">
-        <v>0.9500000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I150" t="n">
-        <v>0.8300000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="J150" t="n">
-        <v>2.1366610620709</v>
+        <v>26.469375</v>
       </c>
       <c r="K150" t="n">
-        <v>-1.8</v>
+        <v>-61.68875000000001</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.6900000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="B151" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.48</v>
       </c>
       <c r="C151" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="D151" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F151" t="n">
-        <v>0.21</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G151" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="I151" t="n">
-        <v>0.88</v>
+        <v>0.22</v>
       </c>
       <c r="J151" t="n">
-        <v>18.50494623655914</v>
+        <v>26.6516129032258</v>
       </c>
       <c r="K151" t="n">
-        <v>-0.42</v>
+        <v>114.3154838709676</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="B152" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D152" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.98</v>
+        <v>0.39</v>
       </c>
       <c r="G152" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H152" t="n">
-        <v>0.22</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="I152" t="n">
-        <v>0.63</v>
+        <v>0.04</v>
       </c>
       <c r="J152" t="n">
-        <v>-0.7948192771084341</v>
+        <v>7.119285714285716</v>
       </c>
       <c r="K152" t="n">
-        <v>-1.96</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="B153" t="n">
-        <v>0.36</v>
+        <v>0.66</v>
       </c>
       <c r="C153" t="n">
-        <v>0.45</v>
+        <v>0.91</v>
       </c>
       <c r="D153" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F153" t="n">
-        <v>0.11</v>
+        <v>0.73</v>
       </c>
       <c r="G153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
-        <v>0.24</v>
+        <v>0.14</v>
       </c>
       <c r="I153" t="n">
-        <v>0.46</v>
+        <v>0.52</v>
       </c>
       <c r="J153" t="n">
-        <v>7.743291925465837</v>
+        <v>15.01267241379312</v>
       </c>
       <c r="K153" t="n">
-        <v>-0.22</v>
+        <v>102.2783620689656</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.66</v>
+        <v>0.45</v>
       </c>
       <c r="B154" t="n">
-        <v>0.37</v>
+        <v>0.91</v>
       </c>
       <c r="C154" t="n">
         <v>0.4</v>
       </c>
       <c r="D154" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E154" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F154" t="n">
-        <v>0.04</v>
+        <v>0.76</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
       </c>
       <c r="H154" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="I154" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="J154" t="n">
-        <v>2.533354037267081</v>
+        <v>-75.71333333333335</v>
       </c>
       <c r="K154" t="n">
-        <v>-11.39987577639751</v>
+        <v>58.21824404761905</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="B155" t="n">
-        <v>0.16</v>
+        <v>0.37</v>
       </c>
       <c r="C155" t="n">
-        <v>0.22</v>
+        <v>0.49</v>
       </c>
       <c r="D155" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E155" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>0.48</v>
+        <v>0.42</v>
       </c>
       <c r="G155" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H155" t="n">
-        <v>0.66</v>
+        <v>0.54</v>
       </c>
       <c r="I155" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="J155" t="n">
-        <v>16.73999999999999</v>
+        <v>58.22925925925919</v>
       </c>
       <c r="K155" t="n">
-        <v>-16.35999999999999</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.43</v>
+        <v>0.28</v>
       </c>
       <c r="B156" t="n">
-        <v>0.8300000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="C156" t="n">
-        <v>0.27</v>
+        <v>0.06</v>
       </c>
       <c r="D156" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F156" t="n">
-        <v>0.79</v>
+        <v>0.61</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
       </c>
       <c r="H156" t="n">
-        <v>0.86</v>
+        <v>0.52</v>
       </c>
       <c r="I156" t="n">
-        <v>0.9500000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="J156" t="n">
-        <v>-19.85510489510489</v>
+        <v>-0.3837386569872959</v>
       </c>
       <c r="K156" t="n">
-        <v>-1.58</v>
+        <v>-15.20185117967332</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.59</v>
+        <v>0.49</v>
       </c>
       <c r="B157" t="n">
-        <v>0.38</v>
+        <v>0.52</v>
       </c>
       <c r="C157" t="n">
-        <v>0.67</v>
+        <v>0.98</v>
       </c>
       <c r="D157" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="E157" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>0.92</v>
+        <v>0.6900000000000001</v>
       </c>
       <c r="G157" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H157" t="n">
-        <v>0.5</v>
+        <v>0.09</v>
       </c>
       <c r="I157" t="n">
-        <v>0.3</v>
+        <v>0.93</v>
       </c>
       <c r="J157" t="n">
-        <v>6.073606060606064</v>
+        <v>97.65708771929818</v>
       </c>
       <c r="K157" t="n">
-        <v>-2.633162878787874</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="B158" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="C158" t="n">
-        <v>0.11</v>
+        <v>0.29</v>
       </c>
       <c r="D158" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F158" t="n">
-        <v>0.44</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G158" t="n">
         <v>4</v>
       </c>
       <c r="H158" t="n">
-        <v>0.53</v>
+        <v>0.77</v>
       </c>
       <c r="I158" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="J158" t="n">
-        <v>5.971436781609195</v>
+        <v>2.046388888888886</v>
       </c>
       <c r="K158" t="n">
-        <v>-0.88</v>
+        <v>-36.76638888888889</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="B159" t="n">
-        <v>0.97</v>
+        <v>0.53</v>
       </c>
       <c r="C159" t="n">
-        <v>0.85</v>
+        <v>0.12</v>
       </c>
       <c r="D159" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E159" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F159" t="n">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="G159" t="n">
         <v>3</v>
       </c>
       <c r="H159" t="n">
-        <v>0.15</v>
+        <v>0.33</v>
       </c>
       <c r="I159" t="n">
-        <v>0.01</v>
+        <v>0.28</v>
       </c>
       <c r="J159" t="n">
-        <v>6.085672834314551</v>
+        <v>-0.2614547754585702</v>
       </c>
       <c r="K159" t="n">
-        <v>3.566194280908324</v>
+        <v>-9.907722960151803</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.61</v>
+        <v>0.27</v>
       </c>
       <c r="B160" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="C160" t="n">
-        <v>0.33</v>
+        <v>0.62</v>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E160" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F160" t="n">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H160" t="n">
-        <v>0.29</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="I160" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="J160" t="n">
-        <v>0.561118279569893</v>
+        <v>-24.07101694915258</v>
       </c>
       <c r="K160" t="n">
-        <v>-1.5</v>
+        <v>-99.7949152542374</v>
       </c>
     </row>
     <row r="161">
@@ -6060,150 +6060,150 @@
         <v>0.98</v>
       </c>
       <c r="B161" t="n">
-        <v>0.46</v>
+        <v>0.08</v>
       </c>
       <c r="C161" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="D161" t="n">
         <v>-5</v>
       </c>
       <c r="E161" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>0.44</v>
+        <v>0.53</v>
       </c>
       <c r="G161" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H161" t="n">
-        <v>0.49</v>
+        <v>0.8</v>
       </c>
       <c r="I161" t="n">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="J161" t="n">
-        <v>3.950274434280212</v>
+        <v>0.5453913043478261</v>
       </c>
       <c r="K161" t="n">
-        <v>8.181169956668269</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.04</v>
+        <v>0.88</v>
       </c>
       <c r="B162" t="n">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
       <c r="C162" t="n">
-        <v>0.34</v>
+        <v>0.8</v>
       </c>
       <c r="D162" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E162" t="n">
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.66</v>
+        <v>0.87</v>
       </c>
       <c r="G162" t="n">
         <v>4</v>
       </c>
       <c r="H162" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="I162" t="n">
-        <v>0.59</v>
+        <v>0.13</v>
       </c>
       <c r="J162" t="n">
-        <v>111.515</v>
+        <v>1.947499999999999</v>
       </c>
       <c r="K162" t="n">
-        <v>-1.32</v>
+        <v>-1.74</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.88</v>
+        <v>0.58</v>
       </c>
       <c r="B163" t="n">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="C163" t="n">
-        <v>0.41</v>
+        <v>0.53</v>
       </c>
       <c r="D163" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>0.1</v>
+        <v>0.46</v>
       </c>
       <c r="G163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H163" t="n">
-        <v>0.34</v>
+        <v>0.42</v>
       </c>
       <c r="I163" t="n">
-        <v>0.46</v>
+        <v>0.86</v>
       </c>
       <c r="J163" t="n">
-        <v>2.418143031288093</v>
+        <v>1.886371916508539</v>
       </c>
       <c r="K163" t="n">
-        <v>-0.2</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.86</v>
+        <v>0.79</v>
       </c>
       <c r="B164" t="n">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="C164" t="n">
-        <v>0.48</v>
+        <v>0.62</v>
       </c>
       <c r="D164" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E164" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.49</v>
+        <v>0.09</v>
       </c>
       <c r="G164" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H164" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="I164" t="n">
-        <v>0.39</v>
+        <v>0.2</v>
       </c>
       <c r="J164" t="n">
-        <v>8.811141141141146</v>
+        <v>22.48390804597699</v>
       </c>
       <c r="K164" t="n">
-        <v>32.33422422422424</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="B165" t="n">
-        <v>0.96</v>
+        <v>0.21</v>
       </c>
       <c r="C165" t="n">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="D165" t="n">
         <v>5</v>
@@ -6212,383 +6212,383 @@
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>0.84</v>
+        <v>0.51</v>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H165" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>0.68</v>
+        <v>0.72</v>
       </c>
       <c r="J165" t="n">
-        <v>11.66048780487804</v>
+        <v>-3.555344827586208</v>
       </c>
       <c r="K165" t="n">
-        <v>-1.68</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="B166" t="n">
-        <v>0.78</v>
+        <v>0.35</v>
       </c>
       <c r="C166" t="n">
-        <v>0.49</v>
+        <v>0.6900000000000001</v>
       </c>
       <c r="D166" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F166" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="G166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H166" t="n">
-        <v>0.71</v>
+        <v>0.35</v>
       </c>
       <c r="I166" t="n">
-        <v>0.14</v>
+        <v>0.24</v>
       </c>
       <c r="J166" t="n">
-        <v>-11.6569696969697</v>
+        <v>2.11709090909091</v>
       </c>
       <c r="K166" t="n">
-        <v>55.81742424242424</v>
+        <v>4.942272727272729</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.23</v>
+        <v>0.42</v>
       </c>
       <c r="B167" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="C167" t="n">
-        <v>0.8300000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E167" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>0.93</v>
+        <v>0.1</v>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H167" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I167" t="n">
         <v>0.9400000000000001</v>
       </c>
-      <c r="I167" t="n">
-        <v>0.8300000000000001</v>
-      </c>
       <c r="J167" t="n">
-        <v>1.185187165775402</v>
+        <v>17.15782608695653</v>
       </c>
       <c r="K167" t="n">
-        <v>15.81406417112299</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.58</v>
+        <v>0.35</v>
       </c>
       <c r="B168" t="n">
-        <v>0.49</v>
+        <v>0.66</v>
       </c>
       <c r="C168" t="n">
-        <v>0.6900000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="D168" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="E168" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F168" t="n">
-        <v>0.26</v>
+        <v>0.98</v>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H168" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="I168" t="n">
-        <v>0.49</v>
+        <v>0.12</v>
       </c>
       <c r="J168" t="n">
-        <v>4.857024291497978</v>
+        <v>-0.382163461538463</v>
       </c>
       <c r="K168" t="n">
-        <v>0.88037112010797</v>
+        <v>4.080144230769229</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.16</v>
+        <v>0.88</v>
       </c>
       <c r="B169" t="n">
-        <v>0.92</v>
+        <v>0.21</v>
       </c>
       <c r="C169" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="D169" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F169" t="n">
-        <v>0.41</v>
+        <v>0.19</v>
       </c>
       <c r="G169" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H169" t="n">
-        <v>0.52</v>
+        <v>0.93</v>
       </c>
       <c r="I169" t="n">
-        <v>0.23</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J169" t="n">
-        <v>87.18428571428575</v>
+        <v>1.864977678571428</v>
       </c>
       <c r="K169" t="n">
-        <v>-0.8200000000000001</v>
+        <v>13.13127232142857</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="B170" t="n">
-        <v>0.85</v>
+        <v>0.97</v>
       </c>
       <c r="C170" t="n">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="D170" t="n">
         <v>-5</v>
       </c>
       <c r="E170" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>0.77</v>
+        <v>0.05</v>
       </c>
       <c r="G170" t="n">
         <v>4</v>
       </c>
       <c r="H170" t="n">
-        <v>0.89</v>
+        <v>0.03</v>
       </c>
       <c r="I170" t="n">
-        <v>0.58</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="J170" t="n">
-        <v>-10.30146153846154</v>
+        <v>-3.586413066385672</v>
       </c>
       <c r="K170" t="n">
-        <v>-65.51028846153845</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="B171" t="n">
-        <v>0.08</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="C171" t="n">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="D171" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F171" t="n">
-        <v>0.19</v>
+        <v>0.98</v>
       </c>
       <c r="G171" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H171" t="n">
-        <v>0.19</v>
+        <v>0.31</v>
       </c>
       <c r="I171" t="n">
-        <v>0.53</v>
+        <v>0.63</v>
       </c>
       <c r="J171" t="n">
-        <v>2.577054085155352</v>
+        <v>71.13000000000005</v>
       </c>
       <c r="K171" t="n">
-        <v>-0.38</v>
+        <v>-414.9225000000004</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.36</v>
+        <v>0.59</v>
       </c>
       <c r="B172" t="n">
-        <v>0.55</v>
+        <v>0.32</v>
       </c>
       <c r="C172" t="n">
-        <v>0.73</v>
+        <v>0.97</v>
       </c>
       <c r="D172" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F172" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G172" t="n">
         <v>3</v>
       </c>
       <c r="H172" t="n">
-        <v>0.18</v>
+        <v>0.79</v>
       </c>
       <c r="I172" t="n">
-        <v>0.8300000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="J172" t="n">
-        <v>17.3612962962963</v>
+        <v>-6.154569892473106</v>
       </c>
       <c r="K172" t="n">
-        <v>-1.46</v>
+        <v>54.18983870967738</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B173" t="n">
         <v>0.47</v>
       </c>
-      <c r="B173" t="n">
-        <v>0.12</v>
-      </c>
       <c r="C173" t="n">
-        <v>0.66</v>
+        <v>0.39</v>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F173" t="n">
-        <v>0.09</v>
+        <v>0.96</v>
       </c>
       <c r="G173" t="n">
         <v>3</v>
       </c>
       <c r="H173" t="n">
-        <v>0.64</v>
+        <v>0.32</v>
       </c>
       <c r="I173" t="n">
-        <v>0.49</v>
+        <v>0.9</v>
       </c>
       <c r="J173" t="n">
-        <v>-1.131753889674685</v>
+        <v>-1.246630358888423</v>
       </c>
       <c r="K173" t="n">
-        <v>-0.18</v>
+        <v>9.599600963552579</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.01</v>
+        <v>0.87</v>
       </c>
       <c r="B174" t="n">
-        <v>0.78</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="C174" t="n">
-        <v>0.5</v>
+        <v>0.32</v>
       </c>
       <c r="D174" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H174" t="n">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="I174" t="n">
-        <v>0.17</v>
+        <v>0.77</v>
       </c>
       <c r="J174" t="n">
-        <v>-7.140702426564493</v>
+        <v>0.7096802995391736</v>
       </c>
       <c r="K174" t="n">
-        <v>29.09570561941251</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.25</v>
+        <v>0.72</v>
       </c>
       <c r="B175" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="C175" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D175" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" t="n">
         <v>0.04</v>
       </c>
-      <c r="D175" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E175" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F175" t="n">
-        <v>0.13</v>
-      </c>
       <c r="G175" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H175" t="n">
-        <v>0.97</v>
+        <v>0.06</v>
       </c>
       <c r="I175" t="n">
-        <v>0.87</v>
+        <v>0.51</v>
       </c>
       <c r="J175" t="n">
-        <v>-2.073001876172606</v>
+        <v>2.354230769230769</v>
       </c>
       <c r="K175" t="n">
-        <v>20.47039399624765</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.31</v>
+        <v>0.55</v>
       </c>
       <c r="B176" t="n">
-        <v>0.49</v>
+        <v>0.39</v>
       </c>
       <c r="C176" t="n">
-        <v>0.1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="D176" t="n">
         <v>5</v>
@@ -6597,22 +6597,22 @@
         <v>5</v>
       </c>
       <c r="F176" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="G176" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
-        <v>0.73</v>
+        <v>0.47</v>
       </c>
       <c r="I176" t="n">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="J176" t="n">
-        <v>-20.50999999999999</v>
+        <v>-0.6755555555555643</v>
       </c>
       <c r="K176" t="n">
-        <v>22.62055555555555</v>
+        <v>-22.0165824915825</v>
       </c>
     </row>
   </sheetData>
